--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test2_Frozen/QuerySet2.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test2_Frozen/QuerySet2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="824">
   <si>
     <t>Index</t>
   </si>
@@ -2482,6 +2482,15 @@
   </si>
   <si>
     <t>4 whiles</t>
+  </si>
+  <si>
+    <t>assign a; while w; prog_line n;</t>
+  </si>
+  <si>
+    <t>Select a such that Next(a,n) and Next*(n,n) with n=w.stmt#</t>
+  </si>
+  <si>
+    <t>10,16,21,27,31,32</t>
   </si>
 </sst>
 </file>
@@ -2658,53 +2667,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE67C73"/>
-          <bgColor rgb="FFE67C73"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE67C73"/>
-          <bgColor rgb="FFE67C73"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <b/>
@@ -3290,9 +3253,9 @@
   <dimension ref="A1:G365"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C336" sqref="C336"/>
+      <selection pane="bottomLeft" activeCell="C318" sqref="C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9309,11 +9272,21 @@
       <c r="G319" s="16"/>
     </row>
     <row r="320" spans="1:7">
-      <c r="A320" s="6"/>
-      <c r="B320" s="9"/>
-      <c r="C320" s="9"/>
-      <c r="D320" s="14"/>
-      <c r="E320" s="9"/>
+      <c r="A320" s="6">
+        <v>319</v>
+      </c>
+      <c r="B320" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="D320" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="E320" s="9" t="s">
+        <v>776</v>
+      </c>
       <c r="F320" s="16"/>
       <c r="G320" s="16"/>
     </row>
@@ -10196,121 +10169,121 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1 G366:G1048576">
-    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"BUG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102:G200">
-    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G102))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102:G200">
-    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G102))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G201">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G201))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G201">
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G201))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202:G251">
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G202))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202:G251">
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G202))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G252:G301">
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G252))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G252:G301">
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G252))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302:G311">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G302))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302:G311">
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G302))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G312:G316">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G312))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G312:G316">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G312))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G317:G319">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G317))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G317:G319">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G317))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G321:G341">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="BUG">
+      <formula>NOT(ISERROR(SEARCH(("BUG"),(G321))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G321:G341">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH(("PASS"),(G321))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G342:G365">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="BUG">
+      <formula>NOT(ISERROR(SEARCH(("BUG"),(G342))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G342:G365">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH(("PASS"),(G342))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G320">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G320))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G320">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G320))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G321:G341">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="BUG">
-      <formula>NOT(ISERROR(SEARCH(("BUG"),(G321))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G321:G341">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH(("PASS"),(G321))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G342:G365">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="BUG">
-      <formula>NOT(ISERROR(SEARCH(("BUG"),(G342))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G342:G365">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH(("PASS"),(G342))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test2_Frozen/QuerySet2.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test2_Frozen/QuerySet2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="825">
   <si>
     <t>Index</t>
   </si>
@@ -2491,6 +2491,9 @@
   </si>
   <si>
     <t>10,16,21,27,31,32</t>
+  </si>
+  <si>
+    <t>2,3,5,14,100,10,22,9</t>
   </si>
 </sst>
 </file>
@@ -2667,30 +2670,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE67C73"/>
-          <bgColor rgb="FFE67C73"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <b/>
@@ -3252,10 +3232,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3B02F3-8668-4835-B18A-9EFEA275CE21}">
   <dimension ref="A1:G365"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C318" sqref="C318"/>
+      <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3263,7 +3243,7 @@
     <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="76.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="93" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="4" customWidth="1"/>
@@ -3401,7 +3381,7 @@
         <v>485</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>113</v>
+        <v>824</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>486</v>
@@ -3477,7 +3457,7 @@
         <v>364</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>365</v>
+        <v>7</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>366</v>
@@ -3496,7 +3476,7 @@
         <v>368</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>369</v>
+        <v>7</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>370</v>
@@ -10169,90 +10149,90 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1 G366:G1048576">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>"BUG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G101">
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102:G200">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G102))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102:G200">
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G102))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G201">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G201))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G201">
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G201))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202:G251">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G202))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G202:G251">
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G202))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G252:G301">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G252))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G252:G301">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G252))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302:G311">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G302))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302:G311">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G302))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G312:G316">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G312))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G312:G316">
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G312))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G317:G319">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="BUG">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G317))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G317:G319">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G317))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test2_Frozen/QuerySet2.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test2_Frozen/QuerySet2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="254" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="825">
   <si>
     <t>Index</t>
   </si>
@@ -360,9 +360,6 @@
     <t>Select c such that Modifies(4, "b")</t>
   </si>
   <si>
-    <t>2,3,5,14,100,10,22</t>
-  </si>
-  <si>
     <t>Select BOOLEAN such that Modifies(4, _)</t>
   </si>
   <si>
@@ -1116,9 +1113,6 @@
     <t>Select s with s1.stmt#=s2.stmt#</t>
   </si>
   <si>
-    <t>1,10,11,12,13,14,15,16,17,18,19,2,20,21,22,23,24,25,26,27,28,29,3,30,31,32,33,34,35,36,37,38,4,5,6,7,8,10</t>
-  </si>
-  <si>
     <t>Select SingleSynonym With StmtStmt NoCommonSynonym HaveResult</t>
   </si>
   <si>
@@ -1128,9 +1122,6 @@
     <t>Select s1 with s1.stmt#=s2.stmt#</t>
   </si>
   <si>
-    <t>1,10,11,12,13,14,15,16,17,18,19,2,20,21,22,23,24,25,26,27,28,29,3,30,31,32,33,34,35,36,37,38,4,5,6,7,8,11</t>
-  </si>
-  <si>
     <t>Select SingleSynonym With StmtStmt CommonSynonym HaveResult</t>
   </si>
   <si>
@@ -1260,9 +1251,6 @@
     <t>Select SingleSynonym With AssignCall NoResult</t>
   </si>
   <si>
-    <t>while w; stmt#</t>
-  </si>
-  <si>
     <t>Select w with w.stmt#=s.stmt#</t>
   </si>
   <si>
@@ -1323,9 +1311,6 @@
     <t>Select w with w.stmt# = c.value</t>
   </si>
   <si>
-    <t>Select SingleSynonym With WhileConstant ValidButNotFound NoResult</t>
-  </si>
-  <si>
     <t>stmt s; assign a; while w;</t>
   </si>
   <si>
@@ -1602,9 +1587,6 @@
     <t>Case 3: returns result, container stmt</t>
   </si>
   <si>
-    <t>m,o,q,v,x,y,z</t>
-  </si>
-  <si>
     <t>Select s such that Modifies(s, "s")</t>
   </si>
   <si>
@@ -1632,18 +1614,12 @@
     <t>Select i such that Modifies(i, "s")</t>
   </si>
   <si>
-    <t>13,18</t>
-  </si>
-  <si>
     <t>Case 4: returns if result</t>
   </si>
   <si>
     <t>Select calls such that Modifies(calls, "s")</t>
   </si>
   <si>
-    <t>3,7,8,11,14,15,19</t>
-  </si>
-  <si>
     <t>Case 4: returns calls result</t>
   </si>
   <si>
@@ -1683,9 +1659,6 @@
     <t>2 clauses: true and false is false</t>
   </si>
   <si>
-    <t>Select BOOLEAN such that Modifies(13, "j") and Modifies(16,"k")</t>
-  </si>
-  <si>
     <t>2 clauses: true and true is true</t>
   </si>
   <si>
@@ -1704,12 +1677,6 @@
     <t>2 such that clauses = 1 such that and 1 and clause</t>
   </si>
   <si>
-    <t>Select s such that Modifies(s, "m") and Modifies(s, "o")</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
     <t>2 clauses: select s, has common subset</t>
   </si>
   <si>
@@ -2494,6 +2461,39 @@
   </si>
   <si>
     <t>2,3,5,14,100,10,22,9</t>
+  </si>
+  <si>
+    <t>2,3,5,9,10,14,22</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym With WhileConstant HasResult</t>
+  </si>
+  <si>
+    <t>while w; stmt s;</t>
+  </si>
+  <si>
+    <t>o,q,v,x,y,z</t>
+  </si>
+  <si>
+    <t>5,13,18</t>
+  </si>
+  <si>
+    <t>3,7,8,14,15,19</t>
+  </si>
+  <si>
+    <t>Select BOOLEAN such that Modifies(13, "l") and Modifies(16,"k")</t>
+  </si>
+  <si>
+    <t>Select s such that Modifies(s, "m") and Modifies(s, "p")</t>
+  </si>
+  <si>
+    <t>3,5,7,8,11,13,14</t>
+  </si>
+  <si>
+    <t>All assign and container/call statement containing the assign</t>
+  </si>
+  <si>
+    <t>g,j,k,m,l,o,p,q,s,t,u,v,x,y,z</t>
   </si>
 </sst>
 </file>
@@ -2503,7 +2503,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m\,\ d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2554,6 +2554,18 @@
       <sz val="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2602,7 +2614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2664,6 +2676,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2932,7 +2960,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE67C73"/>
+          <bgColor rgb="FF57BB8A"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2944,7 +2972,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FFE67C73"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3230,12 +3258,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3B02F3-8668-4835-B18A-9EFEA275CE21}">
-  <dimension ref="A1:G365"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
+      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3267,10 +3295,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3283,15 +3311,15 @@
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
+      <c r="D2" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3378,13 +3406,13 @@
         <v>111</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -3438,7 +3466,7 @@
         <v>102</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>103</v>
@@ -3451,16 +3479,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -3470,16 +3498,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -3492,13 +3520,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D13" s="6">
         <v>3</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -3508,16 +3536,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -3530,13 +3558,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3546,16 +3574,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -3565,16 +3593,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3584,16 +3612,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3606,13 +3634,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3622,16 +3650,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -3641,16 +3669,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>113</v>
+        <v>387</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>814</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -3663,13 +3691,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -3682,13 +3710,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -3698,16 +3726,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -3717,16 +3745,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -3739,13 +3767,13 @@
         <v>10</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -3755,16 +3783,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -3774,16 +3802,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -3793,16 +3821,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -3811,17 +3839,17 @@
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>413</v>
+      <c r="B30" s="26" t="s">
+        <v>816</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -3834,13 +3862,13 @@
         <v>24</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -3853,13 +3881,13 @@
         <v>24</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -3869,16 +3897,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -3888,16 +3916,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -3907,16 +3935,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -3926,16 +3954,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -3945,16 +3973,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>815</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -3964,16 +3992,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -3983,16 +4011,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>363</v>
+        <v>5</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>365</v>
+        <v>484</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>366</v>
+        <v>485</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -4002,16 +4030,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>367</v>
+        <v>5</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>369</v>
+        <v>486</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>370</v>
+        <v>487</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -4021,16 +4049,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D41" s="6">
-        <v>3</v>
+        <v>109</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>372</v>
+        <v>110</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -4040,16 +4068,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>367</v>
+        <v>5</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>369</v>
+        <v>7</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>374</v>
+        <v>488</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -4059,16 +4087,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>376</v>
+        <v>489</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -4078,16 +4106,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>377</v>
+        <v>24</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>379</v>
+        <v>490</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -4097,16 +4125,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>303</v>
+        <v>27</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>381</v>
+        <v>491</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -4116,16 +4144,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>382</v>
+        <v>30</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>384</v>
+        <v>492</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -4135,16 +4163,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>386</v>
+        <v>493</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -4154,16 +4182,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>387</v>
+        <v>14</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>388</v>
+        <v>35</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>389</v>
+        <v>494</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -4173,16 +4201,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>312</v>
+        <v>111</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>391</v>
+        <v>495</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -4192,16 +4220,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>487</v>
+        <v>37</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>393</v>
+        <v>496</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -4211,16 +4239,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>395</v>
+        <v>497</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -4229,245 +4257,239 @@
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="B52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="D53" s="7" t="s">
+      <c r="B53" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="E53" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="B54" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="B55" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="B56" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="B57" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="B58" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="B59" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="B60" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D61" s="7" t="s">
+      <c r="B61" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="E61" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>429</v>
-      </c>
+      <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>430</v>
+        <v>113</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>8</v>
+        <v>474</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>431</v>
+        <v>114</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -4477,16 +4499,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>432</v>
+        <v>17</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>433</v>
+        <v>516</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>8</v>
+        <v>517</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>434</v>
+        <v>518</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -4496,16 +4518,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>435</v>
+        <v>17</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>436</v>
+        <v>519</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>8</v>
+        <v>520</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>437</v>
+        <v>521</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -4515,16 +4537,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>817</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>490</v>
+        <v>115</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -4537,13 +4559,13 @@
         <v>5</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>8</v>
+        <v>522</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>523</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -4553,16 +4575,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -4572,16 +4594,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>7</v>
+        <v>525</v>
+      </c>
+      <c r="D70" s="13">
+        <v>27</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -4591,16 +4613,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>23</v>
+        <v>527</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -4610,16 +4632,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>26</v>
+        <v>530</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>818</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -4629,16 +4651,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>29</v>
+        <v>532</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>819</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -4648,16 +4670,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>32</v>
+        <v>534</v>
+      </c>
+      <c r="D74" s="13">
+        <v>27</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -4667,16 +4689,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>498</v>
+        <v>117</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -4686,16 +4708,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>99</v>
+        <v>474</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>499</v>
+        <v>119</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -4705,16 +4727,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -4724,16 +4746,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>7</v>
+        <v>122</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>537</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -4742,17 +4764,15 @@
       <c r="A79" s="6">
         <v>78</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B79" s="6"/>
       <c r="C79" s="6" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>8</v>
+        <v>474</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>502</v>
+        <v>125</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -4761,239 +4781,237 @@
       <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="B81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="6">
         <v>82</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
+      <c r="B83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="B84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
+      <c r="B85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+      <c r="B86" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="6">
         <v>86</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
+      <c r="B87" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="6">
         <v>88</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+      <c r="B90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="B91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="6">
         <v>91</v>
       </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>479</v>
+      <c r="B92" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>821</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>822</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>115</v>
+        <v>552</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -5003,16 +5021,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -5025,13 +5043,13 @@
         <v>17</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>525</v>
+        <v>8</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>526</v>
+        <v>214</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -5041,16 +5059,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>18</v>
+        <v>557</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>527</v>
+        <v>8</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>116</v>
+        <v>558</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -5060,16 +5078,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>5</v>
+        <v>559</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>529</v>
+        <v>560</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>561</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -5079,16 +5097,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>5</v>
+        <v>559</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>11</v>
+        <v>563</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>117</v>
+        <v>564</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -5098,16 +5116,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>21</v>
+        <v>565</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="D98" s="13">
-        <v>27</v>
+        <v>566</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -5117,16 +5135,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>24</v>
+        <v>569</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>534</v>
+        <v>570</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>537</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -5136,18 +5154,20 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>27</v>
+        <v>572</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>537</v>
+        <v>573</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="F100" s="6"/>
+        <v>574</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>823</v>
+      </c>
       <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7">
@@ -5155,16 +5175,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>30</v>
+        <v>575</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>540</v>
+        <v>576</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -5174,16 +5194,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>36</v>
+        <v>578</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="D102" s="13">
-        <v>27</v>
+        <v>579</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>824</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>543</v>
+        <v>581</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
@@ -5193,16 +5213,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>5</v>
+        <v>582</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>12</v>
+        <v>583</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>7</v>
+        <v>584</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>118</v>
+        <v>585</v>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -5212,16 +5232,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>5</v>
+        <v>586</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>119</v>
+        <v>587</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>479</v>
+        <v>580</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>120</v>
+        <v>588</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -5231,16 +5251,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>121</v>
+        <v>589</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>122</v>
+        <v>590</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>7</v>
+        <v>584</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -5250,16 +5270,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>121</v>
+        <v>592</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>545</v>
+        <v>593</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>584</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -5268,15 +5288,17 @@
       <c r="A107" s="6">
         <v>106</v>
       </c>
-      <c r="B107" s="6"/>
+      <c r="B107" s="6" t="s">
+        <v>595</v>
+      </c>
       <c r="C107" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>479</v>
+        <v>596</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>542</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>126</v>
+        <v>597</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -5285,15 +5307,17 @@
       <c r="A108" s="6">
         <v>107</v>
       </c>
-      <c r="B108" s="6"/>
+      <c r="B108" s="6" t="s">
+        <v>598</v>
+      </c>
       <c r="C108" s="6" t="s">
-        <v>127</v>
+        <v>599</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>128</v>
+        <v>601</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -5306,13 +5330,13 @@
         <v>5</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>39</v>
+        <v>602</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -5321,15 +5345,17 @@
       <c r="A110" s="6">
         <v>109</v>
       </c>
-      <c r="B110" s="6"/>
+      <c r="B110" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C110" s="6" t="s">
-        <v>130</v>
+        <v>603</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>479</v>
+        <v>8</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -5339,16 +5365,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>547</v>
+        <v>604</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>605</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
@@ -5358,16 +5384,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>15</v>
+        <v>606</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>224</v>
+        <v>520</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
@@ -5377,16 +5403,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>16</v>
+        <v>607</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>99</v>
+        <v>608</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>141</v>
+        <v>609</v>
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
@@ -5396,16 +5422,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>142</v>
+        <v>610</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
@@ -5415,16 +5441,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>550</v>
+        <v>613</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>614</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -5433,15 +5459,17 @@
       <c r="A116" s="6">
         <v>115</v>
       </c>
-      <c r="B116" s="6"/>
+      <c r="B116" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C116" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>480</v>
+        <v>616</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>561</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
@@ -5450,15 +5478,17 @@
       <c r="A117" s="6">
         <v>116</v>
       </c>
-      <c r="B117" s="6"/>
+      <c r="B117" s="6" t="s">
+        <v>618</v>
+      </c>
       <c r="C117" s="6" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>479</v>
+        <v>620</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -5468,16 +5498,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>17</v>
+        <v>622</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -5487,16 +5517,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>17</v>
+        <v>565</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>559</v>
+        <v>625</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -5506,16 +5536,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>5</v>
+        <v>628</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -5525,16 +5555,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>14</v>
+        <v>632</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>564</v>
+        <v>633</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>565</v>
+        <v>634</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
@@ -5543,17 +5573,15 @@
       <c r="A122" s="6">
         <v>121</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="B122" s="6"/>
       <c r="C122" s="6" t="s">
-        <v>567</v>
+        <v>143</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>8</v>
+        <v>474</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
@@ -5562,17 +5590,15 @@
       <c r="A123" s="6">
         <v>122</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="B123" s="6"/>
       <c r="C123" s="6" t="s">
-        <v>568</v>
+        <v>144</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>569</v>
+        <v>107</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
@@ -5581,17 +5607,15 @@
       <c r="A124" s="6">
         <v>123</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>570</v>
-      </c>
+      <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>572</v>
+        <v>474</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>573</v>
+        <v>114</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
@@ -5601,16 +5625,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>570</v>
+        <v>5</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>574</v>
+        <v>145</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>575</v>
+        <v>541</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
@@ -5620,16 +5644,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>576</v>
+        <v>5</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>577</v>
+        <v>47</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>578</v>
+        <v>13</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
@@ -5639,17 +5663,15 @@
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>580</v>
+        <v>5</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>582</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
     </row>
@@ -5658,17 +5680,15 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>583</v>
+        <v>49</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>584</v>
+        <v>50</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>585</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
     </row>
@@ -5677,17 +5697,15 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>586</v>
+        <v>49</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>587</v>
+        <v>52</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>588</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
     </row>
@@ -5696,17 +5714,15 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>589</v>
+        <v>41</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>590</v>
+        <v>54</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>592</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
     </row>
@@ -5715,17 +5731,15 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>593</v>
+        <v>55</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>594</v>
+        <v>56</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>596</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
     </row>
@@ -5734,17 +5748,15 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>597</v>
+        <v>55</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>598</v>
+        <v>58</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>599</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
     </row>
@@ -5753,17 +5765,15 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>601</v>
+        <v>146</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>602</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
     </row>
@@ -5772,17 +5782,15 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>603</v>
+        <v>9</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>604</v>
+        <v>60</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>605</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
     </row>
@@ -5791,17 +5799,15 @@
         <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>606</v>
+        <v>5</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>608</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
     </row>
@@ -5810,17 +5816,15 @@
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>609</v>
+        <v>5</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>610</v>
+        <v>61</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>612</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
     </row>
@@ -5832,14 +5836,12 @@
         <v>5</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>613</v>
+        <v>62</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>231</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
     </row>
@@ -5848,17 +5850,15 @@
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>614</v>
+        <v>65</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>233</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
     </row>
@@ -5867,17 +5867,15 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>615</v>
+        <v>67</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>235</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
     </row>
@@ -5886,17 +5884,15 @@
         <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>617</v>
+        <v>69</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>238</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
     </row>
@@ -5905,17 +5901,15 @@
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>618</v>
+        <v>150</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>620</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
     </row>
@@ -5924,17 +5918,15 @@
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>621</v>
+        <v>70</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>623</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
     </row>
@@ -5943,17 +5935,15 @@
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>624</v>
+        <v>72</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>626</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
     </row>
@@ -5962,17 +5952,15 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>627</v>
+        <v>152</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>628</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
     </row>
@@ -5981,16 +5969,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>629</v>
+        <v>14</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>631</v>
+        <v>153</v>
+      </c>
+      <c r="D145" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>632</v>
+        <v>74</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
@@ -6000,16 +5988,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>633</v>
+        <v>14</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>578</v>
+        <v>154</v>
+      </c>
+      <c r="D146" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>635</v>
+        <v>75</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
@@ -6019,16 +6007,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>576</v>
+        <v>14</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>637</v>
+        <v>155</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>638</v>
+        <v>76</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -6038,16 +6026,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>639</v>
+        <v>14</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>641</v>
+        <v>156</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>642</v>
+        <v>77</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
@@ -6057,16 +6045,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>643</v>
+        <v>14</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>645</v>
+        <v>158</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>646</v>
+        <v>78</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
@@ -6075,15 +6063,17 @@
       <c r="A150" s="6">
         <v>149</v>
       </c>
-      <c r="B150" s="6"/>
+      <c r="B150" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C150" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>479</v>
+        <v>160</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
@@ -6092,15 +6082,17 @@
       <c r="A151" s="6">
         <v>150</v>
       </c>
-      <c r="B151" s="6"/>
+      <c r="B151" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C151" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>480</v>
+        <v>161</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
@@ -6109,15 +6101,17 @@
       <c r="A152" s="6">
         <v>151</v>
       </c>
-      <c r="B152" s="6"/>
+      <c r="B152" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C152" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>479</v>
+        <v>163</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
@@ -6127,16 +6121,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>479</v>
+        <v>166</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>549</v>
+        <v>82</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -6146,16 +6140,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>13</v>
+        <v>167</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>551</v>
+        <v>168</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
@@ -6165,15 +6159,17 @@
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="E155" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
     </row>
@@ -6182,15 +6178,17 @@
         <v>155</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E156" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
     </row>
@@ -6199,15 +6197,17 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E157" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
     </row>
@@ -6216,15 +6216,17 @@
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
     </row>
@@ -6233,15 +6235,17 @@
         <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E159" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
     </row>
@@ -6250,15 +6254,17 @@
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E160" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
     </row>
@@ -6267,15 +6273,17 @@
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E161" s="6"/>
+        <v>182</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
     </row>
@@ -6284,15 +6292,17 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E162" s="6"/>
+        <v>185</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
     </row>
@@ -6301,15 +6311,17 @@
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="E163" s="6"/>
+        <v>188</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
     </row>
@@ -6318,15 +6330,17 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D164" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E164" s="6"/>
+      <c r="E164" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
     </row>
@@ -6335,15 +6349,17 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E165" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
     </row>
@@ -6352,15 +6368,17 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E166" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
     </row>
@@ -6369,15 +6387,17 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E167" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="D167" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
     </row>
@@ -6386,15 +6406,17 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E168" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="D168" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
     </row>
@@ -6403,15 +6425,17 @@
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E169" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
     </row>
@@ -6420,15 +6444,17 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E170" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
     </row>
@@ -6437,15 +6463,17 @@
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E171" s="6"/>
+        <v>202</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
     </row>
@@ -6454,15 +6482,17 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E172" s="6"/>
+        <v>203</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
     </row>
@@ -6474,13 +6504,13 @@
         <v>14</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D173" s="6" t="b">
-        <v>1</v>
+        <v>204</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
@@ -6493,13 +6523,13 @@
         <v>14</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D174" s="6" t="b">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
@@ -6509,16 +6539,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
@@ -6528,16 +6558,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
@@ -6547,16 +6577,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
@@ -6565,17 +6595,15 @@
       <c r="A178" s="6">
         <v>177</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B178" s="6"/>
       <c r="C178" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>8</v>
+        <v>211</v>
+      </c>
+      <c r="D178" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
@@ -6584,17 +6612,15 @@
       <c r="A179" s="6">
         <v>178</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B179" s="6"/>
       <c r="C179" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>163</v>
+        <v>212</v>
+      </c>
+      <c r="D179" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
@@ -6607,13 +6633,13 @@
         <v>14</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
@@ -6623,16 +6649,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>167</v>
+        <v>638</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>165</v>
+        <v>639</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
@@ -6641,55 +6667,55 @@
       <c r="A182" s="6">
         <v>181</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
+      <c r="B182" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D182" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="6">
         <v>182</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
+      <c r="B183" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D183" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="6">
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>13</v>
+        <v>213</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
@@ -6698,74 +6724,74 @@
       <c r="A185" s="6">
         <v>184</v>
       </c>
-      <c r="B185" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
+      <c r="B185" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D185" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="6">
         <v>185</v>
       </c>
-      <c r="B186" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
+      <c r="B186" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="6">
         <v>186</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
+      <c r="B187" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D187" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="6">
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>32</v>
+        <v>218</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>182</v>
+        <v>558</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -6775,16 +6801,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>184</v>
+        <v>562</v>
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
@@ -6794,16 +6820,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>188</v>
+        <v>564</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
@@ -6813,16 +6839,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>189</v>
+        <v>641</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>190</v>
+        <v>642</v>
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
@@ -6832,16 +6858,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>14</v>
+        <v>643</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>191</v>
+        <v>644</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>8</v>
+        <v>645</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>192</v>
+        <v>646</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -6851,16 +6877,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>193</v>
+        <v>643</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>194</v>
+        <v>647</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>8</v>
+        <v>648</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>195</v>
+        <v>649</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
@@ -6870,16 +6896,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>14</v>
+        <v>650</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>196</v>
+        <v>651</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>8</v>
+        <v>652</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>197</v>
+        <v>653</v>
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
@@ -6889,16 +6915,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>14</v>
+        <v>643</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D195" s="6" t="b">
-        <v>1</v>
+        <v>654</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>655</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>74</v>
+        <v>656</v>
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
@@ -6908,16 +6934,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>14</v>
+        <v>643</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D196" s="6" t="b">
-        <v>0</v>
+        <v>657</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>645</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>75</v>
+        <v>658</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
@@ -6927,16 +6953,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>14</v>
+        <v>643</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>200</v>
+        <v>659</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>8</v>
+        <v>648</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>76</v>
+        <v>660</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
@@ -6946,16 +6972,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>14</v>
+        <v>643</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>201</v>
+        <v>661</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>202</v>
+        <v>655</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>77</v>
+        <v>662</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
@@ -6968,13 +6994,13 @@
         <v>14</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
@@ -6987,13 +7013,13 @@
         <v>14</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
@@ -7003,16 +7029,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
@@ -7022,16 +7048,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -7041,16 +7067,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
@@ -7060,16 +7086,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
@@ -7079,16 +7105,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
@@ -7097,15 +7123,17 @@
       <c r="A206" s="6">
         <v>205</v>
       </c>
-      <c r="B206" s="6"/>
+      <c r="B206" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="C206" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D206" s="6" t="b">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>482</v>
+        <v>245</v>
       </c>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
@@ -7114,15 +7142,17 @@
       <c r="A207" s="6">
         <v>206</v>
       </c>
-      <c r="B207" s="6"/>
+      <c r="B207" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="C207" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D207" s="6" t="b">
-        <v>1</v>
+        <v>246</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>483</v>
+        <v>247</v>
       </c>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
@@ -7132,16 +7162,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>217</v>
+        <v>248</v>
+      </c>
+      <c r="D208" s="6">
+        <v>3</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
@@ -7151,16 +7181,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>650</v>
+        <v>251</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
@@ -7169,55 +7199,55 @@
       <c r="A210" s="6">
         <v>209</v>
       </c>
-      <c r="B210" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D210" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="E210" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F210" s="9"/>
-      <c r="G210" s="9"/>
+      <c r="B210" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="6">
         <v>210</v>
       </c>
-      <c r="B211" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C211" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D211" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E211" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F211" s="9"/>
-      <c r="G211" s="9"/>
+      <c r="B211" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="6">
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>8</v>
+        <v>257</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
@@ -7226,74 +7256,74 @@
       <c r="A213" s="6">
         <v>212</v>
       </c>
-      <c r="B213" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D213" s="14" t="s">
+      <c r="B213" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D213" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E213" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F213" s="9"/>
-      <c r="G213" s="9"/>
+      <c r="E213" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="6">
         <v>213</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C214" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="D214" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E214" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F214" s="9"/>
-      <c r="G214" s="9"/>
+      <c r="C214" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="6">
         <v>214</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C215" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D215" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E215" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
+      <c r="C215" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="6">
         <v>215</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>569</v>
+        <v>664</v>
       </c>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
@@ -7303,16 +7333,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>573</v>
+        <v>665</v>
       </c>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
@@ -7322,16 +7352,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>166</v>
+        <v>650</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>221</v>
+        <v>666</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>575</v>
+        <v>667</v>
       </c>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
@@ -7341,16 +7371,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>166</v>
+        <v>650</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
@@ -7360,16 +7390,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
@@ -7379,16 +7409,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>659</v>
+        <v>243</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
@@ -7397,533 +7427,533 @@
       <c r="A222" s="6">
         <v>221</v>
       </c>
-      <c r="B222" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="F222" s="6"/>
-      <c r="G222" s="6"/>
+      <c r="B222" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D222" s="14" t="str">
+        <f t="shared" ref="D222:D223" si="0">LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
+      <c r="E222" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F222" s="16"/>
+      <c r="G222" s="17"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="6">
         <v>222</v>
       </c>
-      <c r="B223" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="D223" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="F223" s="6"/>
-      <c r="G223" s="6"/>
+      <c r="B223" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D223" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="E223" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F223" s="16"/>
+      <c r="G223" s="17"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="6">
         <v>223</v>
       </c>
-      <c r="B224" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="F224" s="6"/>
-      <c r="G224" s="6"/>
+      <c r="B224" s="15"/>
+      <c r="C224" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="D224" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E224" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="F224" s="16"/>
+      <c r="G224" s="17"/>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="6">
         <v>224</v>
       </c>
-      <c r="B225" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="D225" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="E225" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="F225" s="6"/>
-      <c r="G225" s="6"/>
+      <c r="B225" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D225" s="14" t="str">
+        <f>LOWER(FALSE)</f>
+        <v>false</v>
+      </c>
+      <c r="E225" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F225" s="16"/>
+      <c r="G225" s="17"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="6">
         <v>225</v>
       </c>
-      <c r="B226" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="F226" s="6"/>
-      <c r="G226" s="6"/>
+      <c r="B226" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D226" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="F226" s="16"/>
+      <c r="G226" s="17"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="6">
         <v>226</v>
       </c>
-      <c r="B227" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F227" s="6"/>
-      <c r="G227" s="6"/>
+      <c r="B227" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D227" s="19">
+        <v>16</v>
+      </c>
+      <c r="E227" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="F227" s="16"/>
+      <c r="G227" s="17"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="6">
         <v>227</v>
       </c>
-      <c r="B228" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D228" s="6" t="s">
+      <c r="B228" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C228" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="D228" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E228" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F228" s="6"/>
-      <c r="G228" s="6"/>
+      <c r="E228" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="F228" s="16"/>
+      <c r="G228" s="17"/>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="6">
         <v>228</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E229" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F229" s="6"/>
-      <c r="G229" s="6"/>
+      <c r="B229" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C229" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="D229" s="19">
+        <v>16</v>
+      </c>
+      <c r="E229" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="F229" s="16"/>
+      <c r="G229" s="17"/>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="6">
         <v>229</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D230" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F230" s="6"/>
-      <c r="G230" s="6"/>
+      <c r="B230" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="D230" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E230" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="F230" s="16"/>
+      <c r="G230" s="17"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="6">
         <v>230</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D231" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E231" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F231" s="6"/>
-      <c r="G231" s="6"/>
+      <c r="B231" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="D231" s="19">
+        <v>11</v>
+      </c>
+      <c r="E231" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="F231" s="16"/>
+      <c r="G231" s="17"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="6">
         <v>231</v>
       </c>
-      <c r="B232" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D232" s="6" t="s">
+      <c r="B232" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="C232" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="D232" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E232" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F232" s="6"/>
-      <c r="G232" s="6"/>
+      <c r="E232" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="F232" s="16"/>
+      <c r="G232" s="17"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="6">
         <v>232</v>
       </c>
-      <c r="B233" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D233" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F233" s="6"/>
-      <c r="G233" s="6"/>
+      <c r="B233" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="C233" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="D233" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="E233" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="F233" s="16"/>
+      <c r="G233" s="17"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="6">
         <v>233</v>
       </c>
-      <c r="B234" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D234" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E234" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F234" s="6"/>
-      <c r="G234" s="6"/>
+      <c r="B234" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C234" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="D234" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="F234" s="16"/>
+      <c r="G234" s="17"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="6">
         <v>234</v>
       </c>
-      <c r="B235" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F235" s="6"/>
-      <c r="G235" s="6"/>
+      <c r="B235" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C235" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="D235" s="19">
+        <v>13</v>
+      </c>
+      <c r="E235" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="F235" s="16"/>
+      <c r="G235" s="17"/>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="6">
         <v>235</v>
       </c>
-      <c r="B236" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D236" s="6">
-        <v>3</v>
-      </c>
-      <c r="E236" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F236" s="6"/>
-      <c r="G236" s="6"/>
+      <c r="B236" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D236" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E236" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F236" s="16"/>
+      <c r="G236" s="17"/>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="6">
         <v>236</v>
       </c>
-      <c r="B237" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D237" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E237" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="F237" s="6"/>
-      <c r="G237" s="6"/>
+      <c r="B237" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D237" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="F237" s="16"/>
+      <c r="G237" s="17"/>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="6">
         <v>237</v>
       </c>
-      <c r="B238" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D238" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E238" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F238" s="6"/>
-      <c r="G238" s="6"/>
+      <c r="B238" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D238" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="E238" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F238" s="16"/>
+      <c r="G238" s="17"/>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="6">
         <v>238</v>
       </c>
-      <c r="B239" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D239" s="7" t="s">
+      <c r="B239" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C239" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="D239" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E239" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F239" s="6"/>
-      <c r="G239" s="6"/>
+      <c r="E239" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="F239" s="16"/>
+      <c r="G239" s="17"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="6">
         <v>239</v>
       </c>
-      <c r="B240" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="E240" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F240" s="6"/>
-      <c r="G240" s="6"/>
+      <c r="B240" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C240" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="D240" s="19">
+        <v>12</v>
+      </c>
+      <c r="E240" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="F240" s="16"/>
+      <c r="G240" s="17"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="6">
         <v>240</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D241" s="7" t="s">
+      <c r="B241" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C241" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="D241" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E241" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F241" s="6"/>
-      <c r="G241" s="6"/>
+      <c r="E241" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="F241" s="16"/>
+      <c r="G241" s="17"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="6">
         <v>241</v>
       </c>
-      <c r="B242" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D242" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="F242" s="6"/>
-      <c r="G242" s="6"/>
+      <c r="B242" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C242" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="D242" s="19">
+        <v>11</v>
+      </c>
+      <c r="E242" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="F242" s="16"/>
+      <c r="G242" s="17"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="6">
         <v>242</v>
       </c>
-      <c r="B243" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="F243" s="6"/>
-      <c r="G243" s="6"/>
+      <c r="B243" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D243" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="E243" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F243" s="16"/>
+      <c r="G243" s="17"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="6">
         <v>243</v>
       </c>
-      <c r="B244" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D244" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="F244" s="6"/>
-      <c r="G244" s="6"/>
+      <c r="B244" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D244" s="14" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
+      <c r="E244" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F244" s="16"/>
+      <c r="G244" s="17"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="6">
         <v>244</v>
       </c>
-      <c r="B245" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D245" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F245" s="6"/>
-      <c r="G245" s="6"/>
+      <c r="B245" s="15"/>
+      <c r="C245" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="D245" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E245" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="F245" s="16"/>
+      <c r="G245" s="17"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="6">
         <v>245</v>
       </c>
-      <c r="B246" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="D246" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="F246" s="6"/>
-      <c r="G246" s="6"/>
+      <c r="B246" s="15"/>
+      <c r="C246" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="D246" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E246" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="F246" s="16"/>
+      <c r="G246" s="17"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="6">
         <v>246</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="F247" s="6"/>
-      <c r="G247" s="6"/>
+      <c r="B247" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D247" s="14" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
+      <c r="E247" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F247" s="16"/>
+      <c r="G247" s="17"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="6">
         <v>247</v>
       </c>
-      <c r="B248" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="D248" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="E248" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="F248" s="6"/>
-      <c r="G248" s="6"/>
+      <c r="B248" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D248" s="14" t="str">
+        <f>LOWER(FALSE)</f>
+        <v>false</v>
+      </c>
+      <c r="E248" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F248" s="16"/>
+      <c r="G248" s="17"/>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="6">
         <v>248</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="D249" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E249" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="F249" s="6"/>
-      <c r="G249" s="6"/>
+      <c r="B249" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D249" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E249" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="F249" s="16"/>
+      <c r="G249" s="17"/>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="6">
@@ -7932,15 +7962,14 @@
       <c r="B250" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C250" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="D250" s="14" t="str">
-        <f t="shared" ref="D250:D251" si="0">LOWER(TRUE)</f>
-        <v>true</v>
+      <c r="C250" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D250" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="E250" s="15" t="s">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="F250" s="16"/>
       <c r="G250" s="17"/>
@@ -7953,14 +7982,13 @@
         <v>5</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D251" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>true</v>
+        <v>289</v>
+      </c>
+      <c r="D251" s="19" t="s">
+        <v>290</v>
       </c>
       <c r="E251" s="15" t="s">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="F251" s="16"/>
       <c r="G251" s="17"/>
@@ -7969,15 +7997,17 @@
       <c r="A252" s="6">
         <v>251</v>
       </c>
-      <c r="B252" s="15"/>
+      <c r="B252" s="15" t="s">
+        <v>5</v>
+      </c>
       <c r="C252" s="15" t="s">
-        <v>686</v>
-      </c>
-      <c r="D252" s="14" t="b">
-        <v>1</v>
+        <v>291</v>
+      </c>
+      <c r="D252" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="E252" s="15" t="s">
-        <v>687</v>
+        <v>78</v>
       </c>
       <c r="F252" s="16"/>
       <c r="G252" s="17"/>
@@ -7990,14 +8020,13 @@
         <v>5</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D253" s="14" t="str">
-        <f>LOWER(FALSE)</f>
-        <v>false</v>
+        <v>292</v>
+      </c>
+      <c r="D253" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="E253" s="15" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F253" s="16"/>
       <c r="G253" s="17"/>
@@ -8009,14 +8038,14 @@
       <c r="B254" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C254" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D254" s="14" t="s">
-        <v>8</v>
+      <c r="C254" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D254" s="19" t="s">
+        <v>294</v>
       </c>
       <c r="E254" s="15" t="s">
-        <v>271</v>
+        <v>84</v>
       </c>
       <c r="F254" s="16"/>
       <c r="G254" s="17"/>
@@ -8029,13 +8058,13 @@
         <v>5</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D255" s="19">
-        <v>16</v>
+        <v>295</v>
+      </c>
+      <c r="D255" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="E255" s="15" t="s">
-        <v>273</v>
+        <v>85</v>
       </c>
       <c r="F255" s="16"/>
       <c r="G255" s="17"/>
@@ -8044,17 +8073,15 @@
       <c r="A256" s="6">
         <v>255</v>
       </c>
-      <c r="B256" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C256" s="15" t="s">
-        <v>688</v>
-      </c>
-      <c r="D256" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E256" s="15" t="s">
-        <v>689</v>
+      <c r="B256" s="16"/>
+      <c r="C256" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D256" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E256" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="F256" s="16"/>
       <c r="G256" s="17"/>
@@ -8063,17 +8090,15 @@
       <c r="A257" s="6">
         <v>256</v>
       </c>
-      <c r="B257" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C257" s="15" t="s">
-        <v>690</v>
-      </c>
-      <c r="D257" s="19">
-        <v>16</v>
-      </c>
-      <c r="E257" s="15" t="s">
-        <v>691</v>
+      <c r="B257" s="16"/>
+      <c r="C257" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D257" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E257" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="F257" s="16"/>
       <c r="G257" s="17"/>
@@ -8082,17 +8107,17 @@
       <c r="A258" s="6">
         <v>257</v>
       </c>
-      <c r="B258" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C258" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="D258" s="19" t="s">
+      <c r="B258" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D258" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E258" s="15" t="s">
-        <v>693</v>
+        <v>168</v>
       </c>
       <c r="F258" s="16"/>
       <c r="G258" s="17"/>
@@ -8101,17 +8126,17 @@
       <c r="A259" s="6">
         <v>258</v>
       </c>
-      <c r="B259" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C259" s="15" t="s">
-        <v>694</v>
-      </c>
-      <c r="D259" s="19">
-        <v>11</v>
-      </c>
-      <c r="E259" s="15" t="s">
-        <v>695</v>
+      <c r="B259" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D259" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E259" s="21" t="s">
+        <v>173</v>
       </c>
       <c r="F259" s="16"/>
       <c r="G259" s="17"/>
@@ -8120,17 +8145,17 @@
       <c r="A260" s="6">
         <v>259</v>
       </c>
-      <c r="B260" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="C260" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="D260" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E260" s="15" t="s">
-        <v>698</v>
+      <c r="B260" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D260" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E260" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="F260" s="16"/>
       <c r="G260" s="17"/>
@@ -8139,17 +8164,17 @@
       <c r="A261" s="6">
         <v>260</v>
       </c>
-      <c r="B261" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="C261" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="D261" s="19" t="s">
-        <v>700</v>
-      </c>
-      <c r="E261" s="15" t="s">
-        <v>701</v>
+      <c r="B261" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E261" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="F261" s="16"/>
       <c r="G261" s="17"/>
@@ -8158,17 +8183,17 @@
       <c r="A262" s="6">
         <v>261</v>
       </c>
-      <c r="B262" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C262" s="15" t="s">
-        <v>702</v>
-      </c>
-      <c r="D262" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E262" s="15" t="s">
-        <v>703</v>
+      <c r="B262" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E262" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="F262" s="16"/>
       <c r="G262" s="17"/>
@@ -8177,36 +8202,36 @@
       <c r="A263" s="6">
         <v>262</v>
       </c>
-      <c r="B263" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C263" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="D263" s="19">
+      <c r="B263" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D263" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E263" s="15" t="s">
-        <v>703</v>
+      <c r="E263" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="F263" s="16"/>
       <c r="G263" s="17"/>
     </row>
-    <row r="264" spans="1:7" ht="45">
+    <row r="264" spans="1:7">
       <c r="A264" s="6">
         <v>263</v>
       </c>
-      <c r="B264" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C264" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D264" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E264" s="15" t="s">
-        <v>276</v>
+      <c r="B264" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E264" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="F264" s="16"/>
       <c r="G264" s="17"/>
@@ -8215,17 +8240,17 @@
       <c r="A265" s="6">
         <v>264</v>
       </c>
-      <c r="B265" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D265" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E265" s="15" t="s">
-        <v>278</v>
+      <c r="B265" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D265" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E265" s="21" t="s">
+        <v>183</v>
       </c>
       <c r="F265" s="16"/>
       <c r="G265" s="17"/>
@@ -8234,17 +8259,17 @@
       <c r="A266" s="6">
         <v>265</v>
       </c>
-      <c r="B266" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C266" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="D266" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="E266" s="15" t="s">
-        <v>281</v>
+      <c r="B266" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D266" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E266" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="F266" s="16"/>
       <c r="G266" s="17"/>
@@ -8253,17 +8278,17 @@
       <c r="A267" s="6">
         <v>266</v>
       </c>
-      <c r="B267" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C267" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="D267" s="19" t="s">
+      <c r="B267" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D267" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E267" s="15" t="s">
-        <v>706</v>
+        <v>189</v>
       </c>
       <c r="F267" s="16"/>
       <c r="G267" s="17"/>
@@ -8272,17 +8297,17 @@
       <c r="A268" s="6">
         <v>267</v>
       </c>
-      <c r="B268" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C268" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="D268" s="19">
-        <v>12</v>
+      <c r="B268" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D268" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="E268" s="15" t="s">
-        <v>708</v>
+        <v>315</v>
       </c>
       <c r="F268" s="16"/>
       <c r="G268" s="17"/>
@@ -8291,17 +8316,17 @@
       <c r="A269" s="6">
         <v>268</v>
       </c>
-      <c r="B269" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C269" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="D269" s="19" t="s">
+      <c r="B269" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D269" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E269" s="15" t="s">
-        <v>710</v>
+        <v>317</v>
       </c>
       <c r="F269" s="16"/>
       <c r="G269" s="17"/>
@@ -8310,36 +8335,36 @@
       <c r="A270" s="6">
         <v>269</v>
       </c>
-      <c r="B270" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C270" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="D270" s="19">
-        <v>11</v>
+      <c r="B270" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D270" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="E270" s="15" t="s">
-        <v>712</v>
+        <v>196</v>
       </c>
       <c r="F270" s="16"/>
       <c r="G270" s="17"/>
     </row>
-    <row r="271" spans="1:7" ht="30">
+    <row r="271" spans="1:7">
       <c r="A271" s="6">
         <v>270</v>
       </c>
-      <c r="B271" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>282</v>
+      <c r="B271" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>707</v>
       </c>
       <c r="D271" s="19" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E271" s="15" t="s">
-        <v>284</v>
+        <v>708</v>
       </c>
       <c r="F271" s="16"/>
       <c r="G271" s="17"/>
@@ -8348,18 +8373,17 @@
       <c r="A272" s="6">
         <v>271</v>
       </c>
-      <c r="B272" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C272" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="D272" s="14" t="str">
-        <f>LOWER(TRUE)</f>
-        <v>true</v>
+      <c r="B272" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="D272" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="E272" s="15" t="s">
-        <v>74</v>
+        <v>710</v>
       </c>
       <c r="F272" s="16"/>
       <c r="G272" s="17"/>
@@ -8368,15 +8392,17 @@
       <c r="A273" s="6">
         <v>272</v>
       </c>
-      <c r="B273" s="15"/>
-      <c r="C273" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="D273" s="14" t="b">
-        <v>0</v>
+      <c r="B273" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="D273" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="E273" s="15" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F273" s="16"/>
       <c r="G273" s="17"/>
@@ -8385,15 +8411,17 @@
       <c r="A274" s="6">
         <v>273</v>
       </c>
-      <c r="B274" s="15"/>
-      <c r="C274" s="15" t="s">
+      <c r="B274" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D274" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="E274" s="15" t="s">
         <v>715</v>
-      </c>
-      <c r="D274" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E274" s="15" t="s">
-        <v>716</v>
       </c>
       <c r="F274" s="16"/>
       <c r="G274" s="17"/>
@@ -8402,1047 +8430,1051 @@
       <c r="A275" s="6">
         <v>274</v>
       </c>
-      <c r="B275" s="15" t="s">
+      <c r="B275" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C275" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D275" s="14" t="str">
-        <f>LOWER(TRUE)</f>
-        <v>true</v>
-      </c>
-      <c r="E275" s="15" t="s">
-        <v>74</v>
+      <c r="C275" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="D275" s="14">
+        <v>13</v>
+      </c>
+      <c r="E275" s="9" t="s">
+        <v>717</v>
       </c>
       <c r="F275" s="16"/>
-      <c r="G275" s="17"/>
+      <c r="G275" s="16"/>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="6">
         <v>275</v>
       </c>
-      <c r="B276" s="15" t="s">
+      <c r="B276" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C276" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="D276" s="14" t="str">
-        <f>LOWER(FALSE)</f>
-        <v>false</v>
-      </c>
-      <c r="E276" s="15" t="s">
-        <v>75</v>
+      <c r="C276" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D276" s="14">
+        <v>13</v>
+      </c>
+      <c r="E276" s="9" t="s">
+        <v>719</v>
       </c>
       <c r="F276" s="16"/>
-      <c r="G276" s="17"/>
+      <c r="G276" s="16"/>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="6">
         <v>276</v>
       </c>
-      <c r="B277" s="15" t="s">
+      <c r="B277" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C277" s="15" t="s">
-        <v>288</v>
+      <c r="C277" s="9" t="s">
+        <v>720</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E277" s="15" t="s">
-        <v>271</v>
+        <v>721</v>
+      </c>
+      <c r="E277" s="9" t="s">
+        <v>722</v>
       </c>
       <c r="F277" s="16"/>
-      <c r="G277" s="17"/>
+      <c r="G277" s="16"/>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="6">
         <v>277</v>
       </c>
-      <c r="B278" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C278" s="18" t="s">
-        <v>289</v>
+      <c r="B278" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>723</v>
       </c>
       <c r="D278" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E278" s="15" t="s">
-        <v>273</v>
+        <v>724</v>
+      </c>
+      <c r="E278" s="9" t="s">
+        <v>725</v>
       </c>
       <c r="F278" s="16"/>
-      <c r="G278" s="17"/>
+      <c r="G278" s="16"/>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="6">
         <v>278</v>
       </c>
-      <c r="B279" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="D279" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="E279" s="15" t="s">
-        <v>273</v>
+      <c r="B279" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D279" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="E279" s="9" t="s">
+        <v>728</v>
       </c>
       <c r="F279" s="16"/>
-      <c r="G279" s="17"/>
-    </row>
-    <row r="280" spans="1:7" ht="45">
+      <c r="G279" s="16"/>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280" s="6">
         <v>279</v>
       </c>
-      <c r="B280" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C280" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D280" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E280" s="15" t="s">
-        <v>78</v>
+      <c r="B280" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="D280" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="E280" s="9" t="s">
+        <v>731</v>
       </c>
       <c r="F280" s="16"/>
-      <c r="G280" s="17"/>
+      <c r="G280" s="16"/>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="6">
         <v>280</v>
       </c>
-      <c r="B281" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C281" s="15" t="s">
-        <v>293</v>
+      <c r="B281" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>732</v>
       </c>
       <c r="D281" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E281" s="15" t="s">
-        <v>83</v>
+        <v>714</v>
+      </c>
+      <c r="E281" s="9" t="s">
+        <v>733</v>
       </c>
       <c r="F281" s="16"/>
-      <c r="G281" s="17"/>
+      <c r="G281" s="16"/>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="6">
         <v>281</v>
       </c>
-      <c r="B282" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C282" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="D282" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="E282" s="15" t="s">
-        <v>84</v>
+      <c r="B282" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="D282" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="E282" s="9" t="s">
+        <v>735</v>
       </c>
       <c r="F282" s="16"/>
-      <c r="G282" s="17"/>
-    </row>
-    <row r="283" spans="1:7" ht="30">
+      <c r="G282" s="16"/>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" s="6">
         <v>282</v>
       </c>
-      <c r="B283" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C283" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="D283" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="E283" s="15" t="s">
-        <v>85</v>
+      <c r="B283" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="D283" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>738</v>
       </c>
       <c r="F283" s="16"/>
-      <c r="G283" s="17"/>
+      <c r="G283" s="16"/>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="6">
         <v>283</v>
       </c>
-      <c r="B284" s="16"/>
+      <c r="B284" s="9" t="s">
+        <v>739</v>
+      </c>
       <c r="C284" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D284" s="14" t="b">
-        <v>1</v>
+        <v>740</v>
+      </c>
+      <c r="D284" s="14">
+        <v>12</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>298</v>
+        <v>741</v>
       </c>
       <c r="F284" s="16"/>
-      <c r="G284" s="17"/>
+      <c r="G284" s="16"/>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="6">
         <v>284</v>
       </c>
-      <c r="B285" s="16"/>
+      <c r="B285" s="9" t="s">
+        <v>742</v>
+      </c>
       <c r="C285" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D285" s="14" t="b">
-        <v>1</v>
+        <v>743</v>
+      </c>
+      <c r="D285" s="14" t="s">
+        <v>744</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>298</v>
+        <v>745</v>
       </c>
       <c r="F285" s="16"/>
-      <c r="G285" s="17"/>
+      <c r="G285" s="16"/>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="6">
         <v>285</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>40</v>
+        <v>746</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>300</v>
+        <v>747</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E286" s="15" t="s">
-        <v>169</v>
+        <v>748</v>
+      </c>
+      <c r="E286" s="9" t="s">
+        <v>749</v>
       </c>
       <c r="F286" s="16"/>
-      <c r="G286" s="17"/>
+      <c r="G286" s="16"/>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="6">
         <v>286</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>40</v>
+        <v>750</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="D287" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E287" s="21" t="s">
-        <v>174</v>
+        <v>751</v>
+      </c>
+      <c r="D287" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E287" s="9" t="s">
+        <v>752</v>
       </c>
       <c r="F287" s="16"/>
-      <c r="G287" s="17"/>
-    </row>
-    <row r="288" spans="1:7" ht="30">
+      <c r="G287" s="16"/>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288" s="6">
         <v>287</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>172</v>
+        <v>750</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D288" s="22" t="s">
-        <v>99</v>
+        <v>753</v>
+      </c>
+      <c r="D288" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>171</v>
+        <v>754</v>
       </c>
       <c r="F288" s="16"/>
-      <c r="G288" s="17"/>
+      <c r="G288" s="16"/>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="6">
         <v>288</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>303</v>
+        <v>755</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D289" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E289" s="21" t="s">
-        <v>176</v>
+        <v>756</v>
+      </c>
+      <c r="D289" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>757</v>
       </c>
       <c r="F289" s="16"/>
-      <c r="G289" s="17"/>
+      <c r="G289" s="16"/>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="6">
         <v>289</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>305</v>
+        <v>706</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D290" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E290" s="21" t="s">
-        <v>178</v>
+        <v>758</v>
+      </c>
+      <c r="D290" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="E290" s="9" t="s">
+        <v>760</v>
       </c>
       <c r="F290" s="16"/>
-      <c r="G290" s="17"/>
+      <c r="G290" s="16"/>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="6">
         <v>290</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>307</v>
+        <v>761</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="D291" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E291" s="21" t="s">
-        <v>180</v>
+        <v>762</v>
+      </c>
+      <c r="D291" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="E291" s="9" t="s">
+        <v>764</v>
       </c>
       <c r="F291" s="16"/>
-      <c r="G291" s="17"/>
+      <c r="G291" s="16"/>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="6">
         <v>291</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>309</v>
+        <v>810</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="D292" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E292" s="21" t="s">
-        <v>182</v>
+        <v>811</v>
+      </c>
+      <c r="D292" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>765</v>
       </c>
       <c r="F292" s="16"/>
-      <c r="G292" s="17"/>
+      <c r="G292" s="16"/>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="6">
         <v>292</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>121</v>
+        <v>766</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="D293" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E293" s="21" t="s">
-        <v>184</v>
+        <v>767</v>
+      </c>
+      <c r="D293" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E293" s="9" t="s">
+        <v>765</v>
       </c>
       <c r="F293" s="16"/>
-      <c r="G293" s="17"/>
+      <c r="G293" s="16"/>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="6">
         <v>293</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>312</v>
+        <v>10</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D294" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E294" s="21" t="s">
-        <v>188</v>
+        <v>769</v>
+      </c>
+      <c r="D294" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E294" s="9" t="s">
+        <v>771</v>
       </c>
       <c r="F294" s="16"/>
-      <c r="G294" s="17"/>
+      <c r="G294" s="16"/>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="6">
         <v>294</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>14</v>
+        <v>772</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>314</v>
+        <v>773</v>
       </c>
       <c r="D295" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E295" s="15" t="s">
-        <v>190</v>
+        <v>774</v>
+      </c>
+      <c r="E295" s="9" t="s">
+        <v>775</v>
       </c>
       <c r="F295" s="16"/>
-      <c r="G295" s="17"/>
+      <c r="G295" s="16"/>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="6">
         <v>295</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>5</v>
+        <v>430</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D296" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E296" s="15" t="s">
-        <v>316</v>
+        <v>776</v>
+      </c>
+      <c r="D296" s="14">
+        <v>32</v>
+      </c>
+      <c r="E296" s="9" t="s">
+        <v>777</v>
       </c>
       <c r="F296" s="16"/>
-      <c r="G296" s="17"/>
+      <c r="G296" s="16"/>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="6">
         <v>296</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>5</v>
+        <v>778</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>317</v>
+        <v>779</v>
       </c>
       <c r="D297" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E297" s="15" t="s">
-        <v>318</v>
+        <v>780</v>
+      </c>
+      <c r="E297" s="9" t="s">
+        <v>781</v>
       </c>
       <c r="F297" s="16"/>
-      <c r="G297" s="17"/>
+      <c r="G297" s="16"/>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="6">
         <v>297</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>5</v>
+        <v>782</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D298" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E298" s="15" t="s">
-        <v>197</v>
+        <v>783</v>
+      </c>
+      <c r="D298" s="14">
+        <v>12</v>
+      </c>
+      <c r="E298" s="9" t="s">
+        <v>784</v>
       </c>
       <c r="F298" s="16"/>
-      <c r="G298" s="17"/>
-    </row>
-    <row r="299" spans="1:7" ht="45">
+      <c r="G298" s="16"/>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299" s="6">
         <v>298</v>
       </c>
-      <c r="B299" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="C299" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="D299" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E299" s="15" t="s">
-        <v>719</v>
-      </c>
-      <c r="F299" s="16"/>
-      <c r="G299" s="17"/>
-    </row>
-    <row r="300" spans="1:7" ht="30">
+      <c r="B299" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F299" s="6"/>
+      <c r="G299" s="23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300" s="6">
         <v>299</v>
       </c>
-      <c r="B300" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="C300" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="D300" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="E300" s="15" t="s">
-        <v>721</v>
-      </c>
-      <c r="F300" s="16"/>
-      <c r="G300" s="17"/>
+      <c r="B300" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E300" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F300" s="6"/>
+      <c r="G300" s="23" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="6">
         <v>300</v>
       </c>
-      <c r="B301" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C301" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="D301" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E301" s="15" t="s">
-        <v>723</v>
-      </c>
-      <c r="F301" s="16"/>
-      <c r="G301" s="17"/>
+      <c r="B301" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="6">
         <v>301</v>
       </c>
-      <c r="B302" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C302" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="D302" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="E302" s="15" t="s">
-        <v>726</v>
-      </c>
-      <c r="F302" s="16"/>
-      <c r="G302" s="17"/>
+      <c r="B302" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F302" s="6"/>
+      <c r="G302" s="6"/>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="6">
         <v>302</v>
       </c>
-      <c r="B303" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C303" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="D303" s="14">
-        <v>13</v>
-      </c>
-      <c r="E303" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="F303" s="16"/>
-      <c r="G303" s="16"/>
+      <c r="B303" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F303" s="6"/>
+      <c r="G303" s="6"/>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="6">
         <v>303</v>
       </c>
-      <c r="B304" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C304" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="D304" s="14">
-        <v>13</v>
-      </c>
-      <c r="E304" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="F304" s="16"/>
-      <c r="G304" s="16"/>
+      <c r="B304" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D304" s="24">
+        <v>43020</v>
+      </c>
+      <c r="E304" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F304" s="6"/>
+      <c r="G304" s="6"/>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="6">
         <v>304</v>
       </c>
-      <c r="B305" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C305" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="D305" s="14" t="s">
-        <v>732</v>
-      </c>
-      <c r="E305" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="F305" s="16"/>
-      <c r="G305" s="16"/>
+      <c r="B305" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E305" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F305" s="6"/>
+      <c r="G305" s="6"/>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="6">
         <v>305</v>
       </c>
-      <c r="B306" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="C306" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="D306" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="E306" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="F306" s="16"/>
-      <c r="G306" s="16"/>
+      <c r="B306" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D306" s="6">
+        <v>12</v>
+      </c>
+      <c r="E306" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F306" s="6"/>
+      <c r="G306" s="6"/>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="6">
         <v>306</v>
       </c>
-      <c r="B307" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="C307" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="D307" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="E307" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="F307" s="16"/>
-      <c r="G307" s="16"/>
+      <c r="B307" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E307" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F307" s="6"/>
+      <c r="G307" s="6"/>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="6">
         <v>307</v>
       </c>
-      <c r="B308" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="C308" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="D308" s="14" t="s">
-        <v>741</v>
-      </c>
-      <c r="E308" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="F308" s="16"/>
-      <c r="G308" s="16"/>
+      <c r="B308" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E308" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F308" s="6"/>
+      <c r="G308" s="6"/>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="6">
         <v>308</v>
       </c>
-      <c r="B309" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="C309" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="D309" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="E309" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="F309" s="16"/>
-      <c r="G309" s="16"/>
+      <c r="B309" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F309" s="6"/>
+      <c r="G309" s="6"/>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="6">
         <v>309</v>
       </c>
-      <c r="B310" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="C310" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="D310" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="E310" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="F310" s="16"/>
-      <c r="G310" s="16"/>
+      <c r="B310" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F310" s="6"/>
+      <c r="G310" s="6"/>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="6">
         <v>310</v>
       </c>
-      <c r="B311" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C311" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="D311" s="14" t="s">
-        <v>748</v>
-      </c>
-      <c r="E311" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="F311" s="16"/>
-      <c r="G311" s="16"/>
+      <c r="B311" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F311" s="6"/>
+      <c r="G311" s="6"/>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="6">
         <v>311</v>
       </c>
-      <c r="B312" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="C312" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="D312" s="14">
-        <v>12</v>
-      </c>
-      <c r="E312" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="F312" s="16"/>
-      <c r="G312" s="16"/>
+      <c r="B312" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="F312" s="6"/>
+      <c r="G312" s="6"/>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="6">
         <v>312</v>
       </c>
-      <c r="B313" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="C313" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="D313" s="14" t="s">
-        <v>755</v>
-      </c>
-      <c r="E313" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="F313" s="16"/>
-      <c r="G313" s="16"/>
+      <c r="B313" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6"/>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="6">
         <v>313</v>
       </c>
-      <c r="B314" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="C314" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="D314" s="14" t="s">
-        <v>759</v>
-      </c>
-      <c r="E314" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="F314" s="16"/>
-      <c r="G314" s="16"/>
+      <c r="B314" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D314" s="6">
+        <v>9</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="F314" s="6"/>
+      <c r="G314" s="6"/>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="6">
         <v>314</v>
       </c>
-      <c r="B315" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="C315" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="D315" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E315" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="F315" s="16"/>
-      <c r="G315" s="16"/>
+      <c r="B315" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E315" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="F315" s="6"/>
+      <c r="G315" s="6"/>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="6">
         <v>315</v>
       </c>
-      <c r="B316" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="C316" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="D316" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E316" s="9" t="s">
-        <v>765</v>
-      </c>
-      <c r="F316" s="16"/>
-      <c r="G316" s="16"/>
+      <c r="B316" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D316" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E316" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="6">
         <v>316</v>
       </c>
-      <c r="B317" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="C317" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="D317" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="E317" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="F317" s="16"/>
-      <c r="G317" s="16"/>
+      <c r="B317" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="D317" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E317" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6"/>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="6">
         <v>317</v>
       </c>
-      <c r="B318" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="C318" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="D318" s="14" t="s">
-        <v>770</v>
-      </c>
-      <c r="E318" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="F318" s="16"/>
-      <c r="G318" s="16"/>
+      <c r="B318" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="D318" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6"/>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="6">
         <v>318</v>
       </c>
-      <c r="B319" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="C319" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="D319" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="E319" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="F319" s="16"/>
-      <c r="G319" s="16"/>
+      <c r="B319" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="D319" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="F319" s="6"/>
+      <c r="G319" s="6"/>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="6">
         <v>319</v>
       </c>
-      <c r="B320" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="C320" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="D320" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="E320" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="F320" s="16"/>
-      <c r="G320" s="16"/>
+      <c r="B320" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="F320" s="6"/>
+      <c r="G320" s="6"/>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="6">
         <v>320</v>
       </c>
-      <c r="B321" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="C321" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="D321" s="14" t="s">
-        <v>779</v>
-      </c>
-      <c r="E321" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="F321" s="16"/>
-      <c r="G321" s="16"/>
+      <c r="B321" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D321" s="6">
+        <v>1</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="F321" s="6"/>
+      <c r="G321" s="6"/>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="6">
         <v>321</v>
       </c>
-      <c r="B322" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C322" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="D322" s="14" t="s">
-        <v>781</v>
-      </c>
-      <c r="E322" s="9" t="s">
-        <v>782</v>
-      </c>
-      <c r="F322" s="16"/>
-      <c r="G322" s="16"/>
+      <c r="B322" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D322" s="6">
+        <v>9</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="F322" s="6"/>
+      <c r="G322" s="6"/>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="6">
         <v>322</v>
       </c>
-      <c r="B323" s="9" t="s">
-        <v>783</v>
-      </c>
-      <c r="C323" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="D323" s="14" t="s">
-        <v>785</v>
-      </c>
-      <c r="E323" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="F323" s="16"/>
-      <c r="G323" s="16"/>
+      <c r="B323" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="D323" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E323" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="F323" s="6"/>
+      <c r="G323" s="6"/>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="6">
         <v>323</v>
       </c>
-      <c r="B324" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C324" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="D324" s="14">
-        <v>32</v>
-      </c>
-      <c r="E324" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="F324" s="16"/>
-      <c r="G324" s="16"/>
+      <c r="B324" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="D324" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E324" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="F324" s="6"/>
+      <c r="G324" s="6"/>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="6">
         <v>324</v>
       </c>
-      <c r="B325" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="C325" s="9" t="s">
-        <v>790</v>
-      </c>
-      <c r="D325" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="E325" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="F325" s="16"/>
-      <c r="G325" s="16"/>
+      <c r="B325" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D325" s="6">
+        <v>1</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="F325" s="6"/>
+      <c r="G325" s="6"/>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="6">
         <v>325</v>
       </c>
-      <c r="B326" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="C326" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="D326" s="14">
-        <v>12</v>
-      </c>
-      <c r="E326" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="F326" s="16"/>
-      <c r="G326" s="16"/>
+      <c r="B326" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D326" s="6">
+        <v>1</v>
+      </c>
+      <c r="E326" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="F326" s="6"/>
+      <c r="G326" s="6"/>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="6">
         <v>326</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>320</v>
+        <v>5</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D327" s="6" t="s">
-        <v>322</v>
+        <v>433</v>
+      </c>
+      <c r="D327" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>323</v>
+        <v>434</v>
       </c>
       <c r="F327" s="6"/>
-      <c r="G327" s="23" t="s">
-        <v>324</v>
-      </c>
+      <c r="G327" s="6"/>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="6">
         <v>327</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>21</v>
+        <v>435</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="D328" s="6" t="s">
-        <v>322</v>
+        <v>436</v>
+      </c>
+      <c r="D328" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>326</v>
+        <v>437</v>
       </c>
       <c r="F328" s="6"/>
-      <c r="G328" s="23" t="s">
-        <v>324</v>
-      </c>
+      <c r="G328" s="6"/>
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="6">
         <v>328</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D329" s="6" t="s">
-        <v>328</v>
+        <v>438</v>
+      </c>
+      <c r="D329" s="7" t="s">
+        <v>439</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="F329" s="6"/>
+        <v>440</v>
+      </c>
+      <c r="F329" s="6" t="s">
+        <v>441</v>
+      </c>
       <c r="G329" s="6"/>
     </row>
     <row r="330" spans="1:7">
@@ -9450,18 +9482,20 @@
         <v>329</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D330" s="6" t="s">
-        <v>331</v>
+        <v>442</v>
+      </c>
+      <c r="D330" s="7" t="s">
+        <v>443</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="F330" s="6"/>
+        <v>444</v>
+      </c>
+      <c r="F330" s="6" t="s">
+        <v>445</v>
+      </c>
       <c r="G330" s="6"/>
     </row>
     <row r="331" spans="1:7">
@@ -9469,18 +9503,20 @@
         <v>330</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>21</v>
+        <v>446</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D331" s="6" t="s">
-        <v>334</v>
+        <v>447</v>
+      </c>
+      <c r="D331" s="7" t="s">
+        <v>476</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="F331" s="6"/>
+        <v>448</v>
+      </c>
+      <c r="F331" s="6" t="s">
+        <v>449</v>
+      </c>
       <c r="G331" s="6"/>
     </row>
     <row r="332" spans="1:7">
@@ -9488,18 +9524,20 @@
         <v>331</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>21</v>
+        <v>446</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="D332" s="24">
-        <v>43020</v>
+        <v>447</v>
+      </c>
+      <c r="D332" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="F332" s="6"/>
+        <v>450</v>
+      </c>
+      <c r="F332" s="6" t="s">
+        <v>451</v>
+      </c>
       <c r="G332" s="6"/>
     </row>
     <row r="333" spans="1:7">
@@ -9507,18 +9545,20 @@
         <v>332</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D333" s="6" t="s">
-        <v>8</v>
+        <v>452</v>
+      </c>
+      <c r="D333" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="F333" s="6"/>
+        <v>454</v>
+      </c>
+      <c r="F333" s="6" t="s">
+        <v>455</v>
+      </c>
       <c r="G333" s="6"/>
     </row>
     <row r="334" spans="1:7">
@@ -9526,18 +9566,20 @@
         <v>333</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>21</v>
+        <v>456</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D334" s="6">
-        <v>12</v>
+        <v>457</v>
+      </c>
+      <c r="D334" s="7" t="s">
+        <v>458</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="F334" s="6"/>
+        <v>459</v>
+      </c>
+      <c r="F334" s="6" t="s">
+        <v>460</v>
+      </c>
       <c r="G334" s="6"/>
     </row>
     <row r="335" spans="1:7">
@@ -9545,18 +9587,20 @@
         <v>334</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>21</v>
+        <v>456</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D335" s="6" t="s">
-        <v>8</v>
+        <v>461</v>
+      </c>
+      <c r="D335" s="7" t="s">
+        <v>462</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="F335" s="6"/>
+        <v>463</v>
+      </c>
+      <c r="F335" s="6" t="s">
+        <v>464</v>
+      </c>
       <c r="G335" s="6"/>
     </row>
     <row r="336" spans="1:7">
@@ -9564,18 +9608,20 @@
         <v>335</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>21</v>
+        <v>456</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="D336" s="6" t="s">
-        <v>8</v>
+        <v>465</v>
+      </c>
+      <c r="D336" s="7" t="s">
+        <v>466</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="F336" s="6"/>
+        <v>467</v>
+      </c>
+      <c r="F336" s="6" t="s">
+        <v>468</v>
+      </c>
       <c r="G336" s="6"/>
     </row>
     <row r="337" spans="1:7">
@@ -9583,691 +9629,143 @@
         <v>336</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D337" s="6" t="s">
-        <v>347</v>
+        <v>469</v>
+      </c>
+      <c r="D337" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F337" s="6"/>
+        <v>470</v>
+      </c>
+      <c r="F337" s="6" t="s">
+        <v>471</v>
+      </c>
       <c r="G337" s="6"/>
     </row>
-    <row r="338" spans="1:7">
-      <c r="A338" s="6">
-        <v>337</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C338" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D338" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E338" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="F338" s="6"/>
-      <c r="G338" s="6"/>
-    </row>
-    <row r="339" spans="1:7">
-      <c r="A339" s="6">
-        <v>338</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D339" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E339" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="F339" s="6"/>
-      <c r="G339" s="6"/>
-    </row>
-    <row r="340" spans="1:7">
-      <c r="A340" s="6">
-        <v>339</v>
-      </c>
-      <c r="B340" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="D340" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E340" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="F340" s="6"/>
-      <c r="G340" s="6"/>
-    </row>
-    <row r="341" spans="1:7">
-      <c r="A341" s="6">
-        <v>340</v>
-      </c>
-      <c r="B341" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C341" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D341" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E341" s="6" t="s">
-        <v>797</v>
-      </c>
-      <c r="F341" s="6"/>
-      <c r="G341" s="6"/>
-    </row>
-    <row r="342" spans="1:7">
-      <c r="A342" s="6">
-        <v>341</v>
-      </c>
-      <c r="B342" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D342" s="6">
-        <v>9</v>
-      </c>
-      <c r="E342" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="F342" s="6"/>
-      <c r="G342" s="6"/>
-    </row>
-    <row r="343" spans="1:7">
-      <c r="A343" s="6">
-        <v>342</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D343" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="E343" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="F343" s="6"/>
-      <c r="G343" s="6"/>
-    </row>
-    <row r="344" spans="1:7">
-      <c r="A344" s="6">
-        <v>343</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D344" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E344" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="F344" s="6"/>
-      <c r="G344" s="6"/>
-    </row>
-    <row r="345" spans="1:7">
-      <c r="A345" s="6">
-        <v>344</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="D345" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E345" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="F345" s="6"/>
-      <c r="G345" s="6"/>
-    </row>
-    <row r="346" spans="1:7">
-      <c r="A346" s="6">
-        <v>345</v>
-      </c>
-      <c r="B346" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="C346" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="D346" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E346" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="F346" s="6"/>
-      <c r="G346" s="6"/>
-    </row>
-    <row r="347" spans="1:7">
-      <c r="A347" s="6">
-        <v>346</v>
-      </c>
-      <c r="B347" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="C347" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="D347" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E347" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="F347" s="6"/>
-      <c r="G347" s="6"/>
-    </row>
-    <row r="348" spans="1:7">
-      <c r="A348" s="6">
-        <v>347</v>
-      </c>
-      <c r="B348" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="C348" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="D348" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E348" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="F348" s="6"/>
-      <c r="G348" s="6"/>
-    </row>
-    <row r="349" spans="1:7">
-      <c r="A349" s="6">
-        <v>348</v>
-      </c>
-      <c r="B349" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="C349" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D349" s="6">
-        <v>1</v>
-      </c>
-      <c r="E349" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="F349" s="6"/>
-      <c r="G349" s="6"/>
-    </row>
-    <row r="350" spans="1:7">
-      <c r="A350" s="6">
-        <v>349</v>
-      </c>
-      <c r="B350" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="C350" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D350" s="6">
-        <v>9</v>
-      </c>
-      <c r="E350" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="F350" s="6"/>
-      <c r="G350" s="6"/>
-    </row>
-    <row r="351" spans="1:7">
-      <c r="A351" s="6">
-        <v>350</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="C351" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="D351" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E351" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="F351" s="6"/>
-      <c r="G351" s="6"/>
-    </row>
-    <row r="352" spans="1:7">
-      <c r="A352" s="6">
-        <v>351</v>
-      </c>
-      <c r="B352" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="C352" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="D352" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="E352" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="F352" s="6"/>
-      <c r="G352" s="6"/>
-    </row>
-    <row r="353" spans="1:7">
-      <c r="A353" s="6">
-        <v>352</v>
-      </c>
-      <c r="B353" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="C353" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="D353" s="6">
-        <v>1</v>
-      </c>
-      <c r="E353" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="F353" s="6"/>
-      <c r="G353" s="6"/>
-    </row>
-    <row r="354" spans="1:7">
-      <c r="A354" s="6">
-        <v>353</v>
-      </c>
-      <c r="B354" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="C354" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D354" s="6">
-        <v>1</v>
-      </c>
-      <c r="E354" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="F354" s="6"/>
-      <c r="G354" s="6"/>
-    </row>
-    <row r="355" spans="1:7">
-      <c r="A355" s="6">
-        <v>354</v>
-      </c>
-      <c r="B355" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C355" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D355" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="E355" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F355" s="6"/>
-      <c r="G355" s="6"/>
-    </row>
-    <row r="356" spans="1:7">
-      <c r="A356" s="6">
-        <v>355</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D356" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E356" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="F356" s="6"/>
-      <c r="G356" s="6"/>
-    </row>
-    <row r="357" spans="1:7">
-      <c r="A357" s="6">
-        <v>356</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D357" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="E357" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="F357" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="G357" s="6"/>
-    </row>
-    <row r="358" spans="1:7">
-      <c r="A358" s="6">
-        <v>357</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C358" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="D358" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="E358" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F358" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="G358" s="6"/>
-    </row>
-    <row r="359" spans="1:7">
-      <c r="A359" s="6">
-        <v>358</v>
-      </c>
-      <c r="B359" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="C359" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D359" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="E359" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F359" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="G359" s="6"/>
-    </row>
-    <row r="360" spans="1:7">
-      <c r="A360" s="6">
-        <v>359</v>
-      </c>
-      <c r="B360" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D360" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E360" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="F360" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="G360" s="6"/>
-    </row>
-    <row r="361" spans="1:7">
-      <c r="A361" s="6">
-        <v>360</v>
-      </c>
-      <c r="B361" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="D361" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="E361" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="F361" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="G361" s="6"/>
-    </row>
-    <row r="362" spans="1:7">
-      <c r="A362" s="6">
-        <v>361</v>
-      </c>
-      <c r="B362" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D362" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="E362" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="F362" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="G362" s="6"/>
-    </row>
-    <row r="363" spans="1:7">
-      <c r="A363" s="6">
-        <v>362</v>
-      </c>
-      <c r="B363" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C363" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="D363" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="E363" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="F363" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="G363" s="6"/>
-    </row>
-    <row r="364" spans="1:7">
-      <c r="A364" s="6">
-        <v>363</v>
-      </c>
-      <c r="B364" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C364" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="D364" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="E364" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="F364" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="G364" s="6"/>
-    </row>
-    <row r="365" spans="1:7">
-      <c r="A365" s="6">
-        <v>364</v>
-      </c>
-      <c r="B365" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="D365" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E365" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="F365" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="G365" s="6"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1 G366:G1048576">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+  <conditionalFormatting sqref="G1 G338:G1048576">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+      <formula>"BUG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
-      <formula>"BUG"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G101">
+  <conditionalFormatting sqref="G2:G73">
     <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="BUG">
       <formula>NOT(ISERROR(SEARCH(("BUG"),(G2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G101">
+  <conditionalFormatting sqref="G2:G73">
     <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(G2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G102:G200">
+  <conditionalFormatting sqref="G74:G172">
     <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="BUG">
-      <formula>NOT(ISERROR(SEARCH(("BUG"),(G102))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("BUG"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G102:G200">
+  <conditionalFormatting sqref="G74:G172">
     <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH(("PASS"),(G102))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("PASS"),(G74))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G201">
+  <conditionalFormatting sqref="G173">
     <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="BUG">
-      <formula>NOT(ISERROR(SEARCH(("BUG"),(G201))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("BUG"),(G173))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G201">
+  <conditionalFormatting sqref="G173">
     <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH(("PASS"),(G201))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("PASS"),(G173))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G202:G251">
+  <conditionalFormatting sqref="G174:G223">
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="BUG">
-      <formula>NOT(ISERROR(SEARCH(("BUG"),(G202))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("BUG"),(G174))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G202:G251">
+  <conditionalFormatting sqref="G174:G223">
     <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH(("PASS"),(G202))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("PASS"),(G174))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G252:G301">
+  <conditionalFormatting sqref="G224:G273">
     <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="BUG">
-      <formula>NOT(ISERROR(SEARCH(("BUG"),(G252))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("BUG"),(G224))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G252:G301">
+  <conditionalFormatting sqref="G224:G273">
     <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH(("PASS"),(G252))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("PASS"),(G224))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G302:G311">
+  <conditionalFormatting sqref="G274:G283">
     <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="BUG">
-      <formula>NOT(ISERROR(SEARCH(("BUG"),(G302))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("BUG"),(G274))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G302:G311">
+  <conditionalFormatting sqref="G274:G283">
     <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH(("PASS"),(G302))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("PASS"),(G274))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G312:G316">
+  <conditionalFormatting sqref="G284:G288">
     <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="BUG">
-      <formula>NOT(ISERROR(SEARCH(("BUG"),(G312))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("BUG"),(G284))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G312:G316">
+  <conditionalFormatting sqref="G284:G288">
     <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH(("PASS"),(G312))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("PASS"),(G284))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G317:G319">
+  <conditionalFormatting sqref="G289:G291">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="BUG">
-      <formula>NOT(ISERROR(SEARCH(("BUG"),(G317))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("BUG"),(G289))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G317:G319">
+  <conditionalFormatting sqref="G289:G291">
     <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH(("PASS"),(G317))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("PASS"),(G289))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G321:G341">
+  <conditionalFormatting sqref="G293:G313">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="BUG">
-      <formula>NOT(ISERROR(SEARCH(("BUG"),(G321))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("BUG"),(G293))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G321:G341">
+  <conditionalFormatting sqref="G293:G313">
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH(("PASS"),(G321))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("PASS"),(G293))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G342:G365">
+  <conditionalFormatting sqref="G314:G337">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="BUG">
-      <formula>NOT(ISERROR(SEARCH(("BUG"),(G342))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("BUG"),(G314))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G342:G365">
+  <conditionalFormatting sqref="G314:G337">
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH(("PASS"),(G342))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("PASS"),(G314))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G320">
+  <conditionalFormatting sqref="G292">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="BUG">
-      <formula>NOT(ISERROR(SEARCH(("BUG"),(G320))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("BUG"),(G292))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G320">
+  <conditionalFormatting sqref="G292">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH(("PASS"),(G320))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("PASS"),(G292))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G302 G327:G365" xr:uid="{107397B0-A61F-42A9-8A20-9B0C811782D7}">
+    <dataValidation type="list" allowBlank="1" sqref="G299:G337 G2:G274" xr:uid="{107397B0-A61F-42A9-8A20-9B0C811782D7}">
       <formula1>"BUG,PASS"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test2_Frozen/QuerySet2.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test2_Frozen/QuerySet2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="820">
   <si>
     <t>Index</t>
   </si>
@@ -450,9 +450,6 @@
     <t>Select v such that Modifies(p, v)</t>
   </si>
   <si>
-    <t>Select BOOLEAN such that Uses(4, "b")</t>
-  </si>
-  <si>
     <t>Select BOOLEAN such that Uses(5, "b")</t>
   </si>
   <si>
@@ -462,15 +459,9 @@
     <t>Select a such that Parent(w,a)</t>
   </si>
   <si>
-    <t>10,12,21, 27</t>
-  </si>
-  <si>
     <t>Select BOOLEAN such that Parent*(11,18)</t>
   </si>
   <si>
-    <t>while w; if i</t>
-  </si>
-  <si>
     <t>Select w such that Parent*(w,i)</t>
   </si>
   <si>
@@ -567,9 +558,6 @@
     <t>No common synonyms, Has answer -&gt; returns all calls</t>
   </si>
   <si>
-    <t>Select v such that Calls(v, "Seven")</t>
-  </si>
-  <si>
     <t>No common synonyms, Has answer -&gt; returns all variables</t>
   </si>
   <si>
@@ -816,9 +804,6 @@
     <t>Two</t>
   </si>
   <si>
-    <t>Select p1 such that Calls(p, "Seven") with p.procName = "Five" and Calls(_,p1)</t>
-  </si>
-  <si>
     <t>Select BOOLEAN such that Next(1, 2)</t>
   </si>
   <si>
@@ -891,9 +876,6 @@
     <t>Select s such that Next*(s, 29)</t>
   </si>
   <si>
-    <t>26, 27, 28</t>
-  </si>
-  <si>
     <t>Select s such that Next*(s, _)</t>
   </si>
   <si>
@@ -903,9 +885,6 @@
     <t>Select s such that Next*(16, s)</t>
   </si>
   <si>
-    <t>11, 12, 13, 14, 15</t>
-  </si>
-  <si>
     <t>Select s such that Next*(_, s)</t>
   </si>
   <si>
@@ -1647,9 +1626,6 @@
     <t>Case 12: select procedure that modifies</t>
   </si>
   <si>
-    <t>b,g,j,k,l,m,p,s,t,u,o,p,q,v,x,y,z</t>
-  </si>
-  <si>
     <t>Case 12: select variable that is modified by</t>
   </si>
   <si>
@@ -1722,9 +1698,6 @@
     <t>Select s1 such that Modifies(s1, v1) and Modifies(s1, v2)</t>
   </si>
   <si>
-    <t>1,2,3,5,7,8,11,13,14,15,18,19,24,28,29,30,33</t>
-  </si>
-  <si>
     <t>2 clauses: s1 v1 and s1 v2</t>
   </si>
   <si>
@@ -1761,9 +1734,6 @@
     <t>Select v1 such that Modifies(a1, v1) and Modifies(w1, v1)</t>
   </si>
   <si>
-    <t>g,j,k,l,m,o,p,q,s,t,u,x,y,z</t>
-  </si>
-  <si>
     <t>2 clauses: a1 v1 and w1 v1</t>
   </si>
   <si>
@@ -1821,30 +1791,9 @@
     <t>Select p1 such that Modifies(p1, v1) and Modifies(p1, v2)</t>
   </si>
   <si>
-    <t>One, Two, Three, Five, Six, Seven, Eight, Nine</t>
-  </si>
-  <si>
     <t>2 clauses: p1 v1 and p1 v2 select p1</t>
   </si>
   <si>
-    <t>Select s such that Modifies(s, "g") and s.stmt# = 5</t>
-  </si>
-  <si>
-    <t>Select s such that Modifies(s, "g") and s.stmt# = 7</t>
-  </si>
-  <si>
-    <t>Select s such that Modifies(s, v) and v.varName = "g"</t>
-  </si>
-  <si>
-    <t>5,6,9,10</t>
-  </si>
-  <si>
-    <t>Select v such that Modifies(s, v) and v.varName = "g"</t>
-  </si>
-  <si>
-    <t>Select p such that Modifies(s, v) and p.procName = "One"</t>
-  </si>
-  <si>
     <t>One</t>
   </si>
   <si>
@@ -1863,9 +1812,6 @@
     <t>Select a such that Modifies(a, v) pattern a(_,_"2*h"_)</t>
   </si>
   <si>
-    <t>10,12,21,34</t>
-  </si>
-  <si>
     <t>1 clause + pattern clause assign right</t>
   </si>
   <si>
@@ -1881,9 +1827,6 @@
     <t>Select s such that Modifies(s, v1) and Modifies(s, v2) and Modifies(s, v3)</t>
   </si>
   <si>
-    <t>1,2,3,5,7,8,11,13,14,15,18,19,24,28,33</t>
-  </si>
-  <si>
     <t>3 clauses: s v1 and s v2 and s v3</t>
   </si>
   <si>
@@ -1899,9 +1842,6 @@
     <t>Select s1 such that Modifies(s1, v1) and Modifies(s1, v2) with v1.varName = "g"</t>
   </si>
   <si>
-    <t>3,5</t>
-  </si>
-  <si>
     <t>3 clauses: s1 v1 and s1 v2 with v1</t>
   </si>
   <si>
@@ -1911,9 +1851,6 @@
     <t>Select a such that Modifies(w, v) and Modifies(i, v) pattern a(_,_"2*h"_)</t>
   </si>
   <si>
-    <t>10,12,21</t>
-  </si>
-  <si>
     <t>3 clauses: w v and i v pattern</t>
   </si>
   <si>
@@ -1965,9 +1902,6 @@
     <t>Select p1 such that Calls(p1, p2) and Calls(p1, p3)</t>
   </si>
   <si>
-    <t>One, Three, Five</t>
-  </si>
-  <si>
     <t>2 clauses 3 synonyms: 1 2 and 1 3 select 1</t>
   </si>
   <si>
@@ -1977,18 +1911,12 @@
     <t>Select p1 such that Calls(p2, p1) and Calls(p3, p1)</t>
   </si>
   <si>
-    <t>Six, Seven, Nine</t>
-  </si>
-  <si>
     <t>2 clauses 3 synonyms: 2 1 and 3 1 select 1</t>
   </si>
   <si>
     <t>Select p1 such that Calls(p2, p1) and Calls(p2, p3)</t>
   </si>
   <si>
-    <t>Two, Three, Four, Five, Six, Seven</t>
-  </si>
-  <si>
     <t>2 clauses 3 synonyms: 2 1 and 2 3 select 1</t>
   </si>
   <si>
@@ -2019,9 +1947,6 @@
     <t>3 clauses: select p calls p with p calls p1</t>
   </si>
   <si>
-    <t>Select p1 such that Calls(p1, p2) with p2.procName = "Six" and Calls(p1, p3)</t>
-  </si>
-  <si>
     <t>3 clauses: select p1 calls p1 p2 with p2 and calls p1 p3</t>
   </si>
   <si>
@@ -2031,9 +1956,6 @@
     <t>3 clauses: select p1 calls p1 p2 calls p3 p1 with p3</t>
   </si>
   <si>
-    <t>Select p1 such that Calls(p2, p1) with p2.procName = "Three" and Calls(p2, p3) with p3.procName = "Six"</t>
-  </si>
-  <si>
     <t>Four, Five</t>
   </si>
   <si>
@@ -2193,9 +2115,6 @@
     <t>Select s1 such that Next*(30, s1) and Next*(s2, 12)</t>
   </si>
   <si>
-    <t>31,32,29</t>
-  </si>
-  <si>
     <t>nextstar and nextstar</t>
   </si>
   <si>
@@ -2232,9 +2151,6 @@
     <t>Select a such that Next*(a,w) and Next(w, 21)</t>
   </si>
   <si>
-    <t>17,22</t>
-  </si>
-  <si>
     <t>nextstar a w and next w given</t>
   </si>
   <si>
@@ -2409,9 +2325,6 @@
     <t>Select a pattern w(v, _)</t>
   </si>
   <si>
-    <t>1 while, 1 synonym, select a returns no result</t>
-  </si>
-  <si>
     <t>while w; variable v, v1;</t>
   </si>
   <si>
@@ -2494,6 +2407,78 @@
   </si>
   <si>
     <t>g,j,k,m,l,o,p,q,s,t,u,v,x,y,z</t>
+  </si>
+  <si>
+    <t>g,j,k,l,m,o,p,q,s,t,u,v,x,y,z</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1 clause + with clause</t>
+  </si>
+  <si>
+    <t>Select s such that Modifies(s, "g") with s.stmt# = 5</t>
+  </si>
+  <si>
+    <t>Select s such that Modifies(s, "g") with s.stmt# = 7</t>
+  </si>
+  <si>
+    <t>Select s such that Modifies(s, v) with v.varName = "g"</t>
+  </si>
+  <si>
+    <t>Select v such that Modifies(s, v) with v.varName = "g"</t>
+  </si>
+  <si>
+    <t>Select p such that Modifies(s, v) with p.procName = "One"</t>
+  </si>
+  <si>
+    <t>3,5,6,9,10</t>
+  </si>
+  <si>
+    <t>Select BOOLEAN such that Uses(10, "h")</t>
+  </si>
+  <si>
+    <t>10,12,16,21, 27</t>
+  </si>
+  <si>
+    <t>while w; if I;</t>
+  </si>
+  <si>
+    <t>Select v such that Calls(p, "Seven")</t>
+  </si>
+  <si>
+    <t>Select any caller</t>
+  </si>
+  <si>
+    <t>Select any callee</t>
+  </si>
+  <si>
+    <t>Select p1 such that Calls(p, "Seven") with p.procName = "Five" such that Calls(_,p1)</t>
+  </si>
+  <si>
+    <t>Select p1 such that Calls(p1, p2) with p2.procName = "Six" such that Calls(p1, p3)</t>
+  </si>
+  <si>
+    <t>Select p1 such that Calls(p2, p1) with p2.procName = "Three" such that Calls(p2, p3) with p3.procName = "Six"</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>26, 27, 28, 29, 30, 31, 32</t>
+  </si>
+  <si>
+    <t>11, 12, 13, 14, 15, 16</t>
+  </si>
+  <si>
+    <t>29,30,31,32</t>
+  </si>
+  <si>
+    <t>17,21</t>
+  </si>
+  <si>
+    <t>1 while, 1 synonym, select all assign</t>
   </si>
 </sst>
 </file>
@@ -2614,7 +2599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2694,6 +2679,7 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3261,9 +3247,9 @@
   <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
+      <selection pane="bottomLeft" activeCell="D318" sqref="D318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3295,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3319,7 +3305,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3406,13 +3392,13 @@
         <v>111</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>813</v>
+        <v>784</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -3479,16 +3465,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -3498,16 +3484,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -3520,13 +3506,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D13" s="6">
         <v>3</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -3536,16 +3522,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -3558,13 +3544,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3574,16 +3560,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -3593,16 +3579,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3612,16 +3598,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3634,13 +3620,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3650,16 +3636,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -3669,16 +3655,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>814</v>
+        <v>785</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -3691,13 +3677,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -3710,13 +3696,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -3726,16 +3712,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -3745,16 +3731,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -3767,13 +3753,13 @@
         <v>10</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -3783,16 +3769,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -3802,16 +3788,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -3821,16 +3807,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -3840,16 +3826,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>816</v>
+        <v>787</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -3862,13 +3848,13 @@
         <v>24</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -3881,13 +3867,13 @@
         <v>24</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -3897,16 +3883,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -3916,16 +3902,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -3935,16 +3921,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -3954,16 +3940,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -3973,16 +3959,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>815</v>
+        <v>786</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -3992,16 +3978,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -4014,13 +4000,13 @@
         <v>5</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -4033,13 +4019,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -4077,7 +4063,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -4096,7 +4082,7 @@
         <v>23</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -4115,7 +4101,7 @@
         <v>26</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -4134,7 +4120,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -4153,7 +4139,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -4172,7 +4158,7 @@
         <v>34</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -4191,7 +4177,7 @@
         <v>99</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -4207,10 +4193,10 @@
         <v>112</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -4229,7 +4215,7 @@
         <v>7</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -4248,7 +4234,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -4261,13 +4247,13 @@
         <v>40</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -4277,16 +4263,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -4296,16 +4282,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -4315,16 +4301,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -4334,16 +4320,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -4353,16 +4339,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -4372,16 +4358,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>99</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -4394,13 +4380,13 @@
         <v>120</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -4410,16 +4396,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -4438,7 +4424,7 @@
         <v>8</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -4452,7 +4438,7 @@
         <v>104</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>105</v>
@@ -4469,7 +4455,7 @@
         <v>106</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>107</v>
@@ -4486,7 +4472,7 @@
         <v>113</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>114</v>
@@ -4502,13 +4488,13 @@
         <v>17</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -4521,13 +4507,13 @@
         <v>17</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -4543,7 +4529,7 @@
         <v>18</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>817</v>
+        <v>788</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>115</v>
@@ -4559,13 +4545,13 @@
         <v>5</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -4597,13 +4583,13 @@
         <v>21</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D70" s="13">
         <v>27</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -4616,13 +4602,13 @@
         <v>24</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -4635,13 +4621,13 @@
         <v>27</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>818</v>
+        <v>789</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -4654,13 +4640,13 @@
         <v>30</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>819</v>
+        <v>790</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -4673,13 +4659,13 @@
         <v>36</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D74" s="13">
         <v>27</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -4714,7 +4700,7 @@
         <v>118</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>119</v>
@@ -4736,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -4752,10 +4738,10 @@
         <v>122</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -4769,7 +4755,7 @@
         <v>124</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>125</v>
@@ -4786,7 +4772,7 @@
         <v>126</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>127</v>
@@ -4822,7 +4808,7 @@
         <v>129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>130</v>
@@ -4841,7 +4827,7 @@
         <v>131</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>132</v>
@@ -4860,7 +4846,7 @@
         <v>15</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>133</v>
@@ -4898,10 +4884,10 @@
         <v>141</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -4917,10 +4903,10 @@
         <v>142</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -4931,13 +4917,13 @@
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -4948,13 +4934,13 @@
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="26" t="s">
-        <v>820</v>
+        <v>791</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -4967,13 +4953,13 @@
         <v>17</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -4986,13 +4972,13 @@
         <v>17</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -5005,13 +4991,13 @@
         <v>5</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>821</v>
+        <v>792</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>822</v>
+        <v>793</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -5024,13 +5010,13 @@
         <v>14</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -5043,13 +5029,13 @@
         <v>17</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -5062,13 +5048,13 @@
         <v>42</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -5078,16 +5064,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -5097,16 +5083,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -5116,16 +5102,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D98" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -5135,16 +5121,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -5154,19 +5140,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D100" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>823</v>
+        <v>794</v>
       </c>
       <c r="G100" s="6"/>
     </row>
@@ -5175,16 +5161,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -5194,16 +5180,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>824</v>
+        <v>795</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
@@ -5213,16 +5199,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -5232,16 +5218,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>580</v>
+        <v>796</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -5251,16 +5237,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -5270,16 +5256,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D106" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -5289,16 +5275,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -5308,16 +5294,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>600</v>
+        <v>99</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -5330,13 +5316,13 @@
         <v>5</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>602</v>
+        <v>799</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>7</v>
+        <v>797</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>230</v>
+        <v>798</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -5349,13 +5335,13 @@
         <v>5</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>603</v>
+        <v>800</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -5368,13 +5354,13 @@
         <v>120</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>604</v>
+        <v>801</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>605</v>
+        <v>804</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
@@ -5387,13 +5373,13 @@
         <v>120</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>606</v>
+        <v>802</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
@@ -5406,13 +5392,13 @@
         <v>123</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>607</v>
+        <v>803</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
@@ -5425,13 +5411,13 @@
         <v>44</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
@@ -5444,13 +5430,13 @@
         <v>44</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>614</v>
+        <v>323</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -5463,13 +5449,13 @@
         <v>44</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
@@ -5479,16 +5465,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>620</v>
+        <v>13</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -5498,16 +5484,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>567</v>
+        <v>13</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -5517,16 +5503,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>626</v>
+        <v>804</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -5536,16 +5522,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>630</v>
+        <v>323</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -5555,16 +5541,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
@@ -5575,10 +5561,10 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="6" t="s">
-        <v>143</v>
+        <v>805</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>105</v>
@@ -5592,10 +5578,10 @@
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>107</v>
@@ -5609,10 +5595,10 @@
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>114</v>
@@ -5628,13 +5614,13 @@
         <v>5</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
@@ -5653,7 +5639,7 @@
         <v>13</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
@@ -5669,7 +5655,7 @@
         <v>48</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -5768,10 +5754,10 @@
         <v>10</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>147</v>
+        <v>806</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
@@ -5802,10 +5788,10 @@
         <v>5</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -5901,13 +5887,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>149</v>
+        <v>807</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
@@ -5955,7 +5941,7 @@
         <v>9</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>13</v>
@@ -5972,7 +5958,7 @@
         <v>14</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D145" s="6" t="b">
         <v>1</v>
@@ -5991,10 +5977,10 @@
         <v>14</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D146" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>75</v>
@@ -6010,7 +5996,7 @@
         <v>14</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>8</v>
@@ -6029,10 +6015,10 @@
         <v>14</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>77</v>
@@ -6048,10 +6034,10 @@
         <v>14</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>78</v>
@@ -6067,7 +6053,7 @@
         <v>14</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>8</v>
@@ -6086,10 +6072,10 @@
         <v>14</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>80</v>
@@ -6105,10 +6091,10 @@
         <v>14</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>81</v>
@@ -6121,13 +6107,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>82</v>
@@ -6140,16 +6126,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
@@ -6159,16 +6145,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
@@ -6178,16 +6164,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -6200,13 +6186,13 @@
         <v>134</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
@@ -6219,13 +6205,13 @@
         <v>135</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
@@ -6238,13 +6224,13 @@
         <v>139</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
@@ -6257,13 +6243,13 @@
         <v>136</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
@@ -6276,13 +6262,13 @@
         <v>137</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>182</v>
+        <v>808</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
@@ -6292,16 +6278,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
@@ -6311,16 +6297,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
@@ -6333,13 +6319,13 @@
         <v>14</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
@@ -6349,16 +6335,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
@@ -6371,13 +6357,13 @@
         <v>14</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
@@ -6390,7 +6376,7 @@
         <v>14</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D167" s="6" t="b">
         <v>1</v>
@@ -6409,7 +6395,7 @@
         <v>14</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D168" s="6" t="b">
         <v>0</v>
@@ -6428,7 +6414,7 @@
         <v>14</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>8</v>
@@ -6447,10 +6433,10 @@
         <v>14</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>77</v>
@@ -6466,10 +6452,10 @@
         <v>14</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>78</v>
@@ -6485,7 +6471,7 @@
         <v>14</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>8</v>
@@ -6504,10 +6490,10 @@
         <v>14</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>80</v>
@@ -6523,10 +6509,10 @@
         <v>14</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>81</v>
@@ -6539,13 +6525,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>82</v>
@@ -6558,16 +6544,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
@@ -6577,16 +6563,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
@@ -6597,13 +6583,13 @@
       </c>
       <c r="B178" s="6"/>
       <c r="C178" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D178" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
@@ -6614,13 +6600,13 @@
       </c>
       <c r="B179" s="6"/>
       <c r="C179" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D179" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
@@ -6633,13 +6619,13 @@
         <v>14</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
@@ -6652,13 +6638,13 @@
         <v>14</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
@@ -6671,13 +6657,13 @@
         <v>14</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
@@ -6690,13 +6676,13 @@
         <v>14</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
@@ -6709,13 +6695,13 @@
         <v>14</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
@@ -6728,13 +6714,13 @@
         <v>14</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D185" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
@@ -6747,13 +6733,13 @@
         <v>14</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D186" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
@@ -6766,13 +6752,13 @@
         <v>14</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
@@ -6782,16 +6768,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -6801,16 +6787,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
@@ -6820,16 +6806,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
@@ -6839,16 +6825,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
@@ -6858,16 +6844,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -6877,18 +6863,20 @@
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>648</v>
+        <v>156</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F193" s="6"/>
+        <v>627</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>809</v>
+      </c>
       <c r="G193" s="6"/>
     </row>
     <row r="194" spans="1:7">
@@ -6896,18 +6884,20 @@
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>652</v>
+        <v>161</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="F194" s="6"/>
+        <v>630</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>810</v>
+      </c>
       <c r="G194" s="6"/>
     </row>
     <row r="195" spans="1:7">
@@ -6915,18 +6905,20 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>655</v>
+        <v>161</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="F195" s="6"/>
+        <v>632</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>810</v>
+      </c>
       <c r="G195" s="6"/>
     </row>
     <row r="196" spans="1:7">
@@ -6934,16 +6926,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
@@ -6953,16 +6945,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>648</v>
+        <v>156</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
@@ -6972,16 +6964,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>655</v>
+        <v>161</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
@@ -6994,13 +6986,13 @@
         <v>14</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
@@ -7013,13 +7005,13 @@
         <v>14</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
@@ -7029,16 +7021,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
@@ -7048,16 +7040,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -7067,16 +7059,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
@@ -7086,16 +7078,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
@@ -7105,16 +7097,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
@@ -7124,16 +7116,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
@@ -7143,16 +7135,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
@@ -7162,16 +7154,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D208" s="6">
         <v>3</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
@@ -7181,16 +7173,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
@@ -7200,16 +7192,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
@@ -7219,16 +7211,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
@@ -7238,16 +7230,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
@@ -7257,16 +7249,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
@@ -7279,13 +7271,13 @@
         <v>14</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
@@ -7298,13 +7290,13 @@
         <v>14</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
@@ -7317,13 +7309,13 @@
         <v>138</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
@@ -7336,13 +7328,13 @@
         <v>138</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>265</v>
+        <v>811</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
@@ -7352,16 +7344,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>666</v>
+        <v>812</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
@@ -7371,16 +7363,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
@@ -7390,16 +7382,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>670</v>
+        <v>813</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
@@ -7409,16 +7401,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
@@ -7431,11 +7423,10 @@
         <v>5</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D222" s="14" t="str">
-        <f t="shared" ref="D222:D223" si="0">LOWER(TRUE)</f>
-        <v>true</v>
+        <v>261</v>
+      </c>
+      <c r="D222" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="E222" s="15" t="s">
         <v>74</v>
@@ -7451,11 +7442,10 @@
         <v>5</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="D223" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>true</v>
+        <v>262</v>
+      </c>
+      <c r="D223" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="E223" s="15" t="s">
         <v>74</v>
@@ -7469,13 +7459,13 @@
       </c>
       <c r="B224" s="15"/>
       <c r="C224" s="15" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="D224" s="14" t="b">
         <v>1</v>
       </c>
       <c r="E224" s="15" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="F224" s="16"/>
       <c r="G224" s="17"/>
@@ -7488,11 +7478,10 @@
         <v>5</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D225" s="14" t="str">
-        <f>LOWER(FALSE)</f>
-        <v>false</v>
+        <v>263</v>
+      </c>
+      <c r="D225" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="E225" s="15" t="s">
         <v>75</v>
@@ -7508,13 +7497,13 @@
         <v>5</v>
       </c>
       <c r="C226" s="18" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D226" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E226" s="15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F226" s="16"/>
       <c r="G226" s="17"/>
@@ -7527,13 +7516,13 @@
         <v>5</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D227" s="19">
         <v>16</v>
       </c>
       <c r="E227" s="15" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F227" s="16"/>
       <c r="G227" s="17"/>
@@ -7546,13 +7535,13 @@
         <v>21</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="D228" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E228" s="15" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
       <c r="F228" s="16"/>
       <c r="G228" s="17"/>
@@ -7565,13 +7554,13 @@
         <v>21</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="D229" s="19">
         <v>16</v>
       </c>
       <c r="E229" s="15" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="F229" s="16"/>
       <c r="G229" s="17"/>
@@ -7584,13 +7573,13 @@
         <v>24</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="D230" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E230" s="15" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="F230" s="16"/>
       <c r="G230" s="17"/>
@@ -7603,13 +7592,13 @@
         <v>24</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="D231" s="19">
         <v>11</v>
       </c>
       <c r="E231" s="15" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="F231" s="16"/>
       <c r="G231" s="17"/>
@@ -7619,16 +7608,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="D232" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E232" s="15" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="F232" s="16"/>
       <c r="G232" s="17"/>
@@ -7638,16 +7627,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="D233" s="19" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="E233" s="15" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="F233" s="16"/>
       <c r="G233" s="17"/>
@@ -7660,13 +7649,13 @@
         <v>27</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="D234" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E234" s="15" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
       <c r="F234" s="16"/>
       <c r="G234" s="17"/>
@@ -7679,13 +7668,13 @@
         <v>27</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="D235" s="19">
         <v>13</v>
       </c>
       <c r="E235" s="15" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
       <c r="F235" s="16"/>
       <c r="G235" s="17"/>
@@ -7698,13 +7687,13 @@
         <v>5</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E236" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F236" s="16"/>
       <c r="G236" s="17"/>
@@ -7717,13 +7706,13 @@
         <v>5</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D237" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E237" s="15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F237" s="16"/>
       <c r="G237" s="17"/>
@@ -7736,13 +7725,13 @@
         <v>5</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D238" s="19" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E238" s="15" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F238" s="16"/>
       <c r="G238" s="17"/>
@@ -7755,13 +7744,13 @@
         <v>21</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
       <c r="D239" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E239" s="15" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="F239" s="16"/>
       <c r="G239" s="17"/>
@@ -7774,13 +7763,13 @@
         <v>21</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="D240" s="19">
         <v>12</v>
       </c>
       <c r="E240" s="15" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
       <c r="F240" s="16"/>
       <c r="G240" s="17"/>
@@ -7793,13 +7782,13 @@
         <v>24</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="D241" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E241" s="15" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="F241" s="16"/>
       <c r="G241" s="17"/>
@@ -7812,13 +7801,13 @@
         <v>24</v>
       </c>
       <c r="C242" s="15" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="D242" s="19">
         <v>11</v>
       </c>
       <c r="E242" s="15" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="F242" s="16"/>
       <c r="G242" s="17"/>
@@ -7831,13 +7820,13 @@
         <v>5</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D243" s="19" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E243" s="15" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F243" s="16"/>
       <c r="G243" s="17"/>
@@ -7850,11 +7839,10 @@
         <v>5</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D244" s="14" t="str">
-        <f>LOWER(TRUE)</f>
-        <v>true</v>
+        <v>279</v>
+      </c>
+      <c r="D244" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="E244" s="15" t="s">
         <v>74</v>
@@ -7868,13 +7856,13 @@
       </c>
       <c r="B245" s="15"/>
       <c r="C245" s="15" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
       <c r="D245" s="14" t="b">
         <v>0</v>
       </c>
       <c r="E245" s="15" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="F245" s="16"/>
       <c r="G245" s="17"/>
@@ -7885,13 +7873,13 @@
       </c>
       <c r="B246" s="15"/>
       <c r="C246" s="15" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="D246" s="14" t="b">
         <v>1</v>
       </c>
       <c r="E246" s="15" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
       <c r="F246" s="16"/>
       <c r="G246" s="17"/>
@@ -7904,11 +7892,10 @@
         <v>5</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="D247" s="14" t="str">
-        <f>LOWER(TRUE)</f>
-        <v>true</v>
+        <v>280</v>
+      </c>
+      <c r="D247" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="E247" s="15" t="s">
         <v>74</v>
@@ -7924,11 +7911,10 @@
         <v>5</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D248" s="14" t="str">
-        <f>LOWER(FALSE)</f>
-        <v>false</v>
+        <v>281</v>
+      </c>
+      <c r="D248" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="E248" s="15" t="s">
         <v>75</v>
@@ -7944,13 +7930,13 @@
         <v>5</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D249" s="14" t="s">
-        <v>8</v>
+        <v>814</v>
       </c>
       <c r="E249" s="15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F249" s="16"/>
       <c r="G249" s="17"/>
@@ -7963,13 +7949,13 @@
         <v>5</v>
       </c>
       <c r="C250" s="18" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D250" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E250" s="15" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F250" s="16"/>
       <c r="G250" s="17"/>
@@ -7982,13 +7968,13 @@
         <v>5</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D251" s="19" t="s">
-        <v>290</v>
+        <v>815</v>
       </c>
       <c r="E251" s="15" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F251" s="16"/>
       <c r="G251" s="17"/>
@@ -8001,10 +7987,10 @@
         <v>5</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D252" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E252" s="15" t="s">
         <v>78</v>
@@ -8020,7 +8006,7 @@
         <v>5</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D253" s="14" t="s">
         <v>8</v>
@@ -8039,10 +8025,10 @@
         <v>5</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D254" s="19" t="s">
-        <v>294</v>
+        <v>816</v>
       </c>
       <c r="E254" s="15" t="s">
         <v>84</v>
@@ -8058,10 +8044,10 @@
         <v>5</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D255" s="19" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E255" s="15" t="s">
         <v>85</v>
@@ -8075,13 +8061,13 @@
       </c>
       <c r="B256" s="16"/>
       <c r="C256" s="9" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D256" s="14" t="b">
         <v>1</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F256" s="16"/>
       <c r="G256" s="17"/>
@@ -8092,13 +8078,13 @@
       </c>
       <c r="B257" s="16"/>
       <c r="C257" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D257" s="14" t="b">
         <v>1</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F257" s="16"/>
       <c r="G257" s="17"/>
@@ -8111,13 +8097,13 @@
         <v>40</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D258" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E258" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F258" s="16"/>
       <c r="G258" s="17"/>
@@ -8130,13 +8116,13 @@
         <v>40</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D259" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E259" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F259" s="16"/>
       <c r="G259" s="17"/>
@@ -8146,16 +8132,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D260" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F260" s="16"/>
       <c r="G260" s="17"/>
@@ -8165,16 +8151,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D261" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E261" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F261" s="16"/>
       <c r="G261" s="17"/>
@@ -8184,16 +8170,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D262" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F262" s="16"/>
       <c r="G262" s="17"/>
@@ -8203,16 +8189,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D263" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E263" s="21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F263" s="16"/>
       <c r="G263" s="17"/>
@@ -8222,16 +8208,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D264" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E264" s="21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F264" s="16"/>
       <c r="G264" s="17"/>
@@ -8244,13 +8230,13 @@
         <v>120</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D265" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E265" s="21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F265" s="16"/>
       <c r="G265" s="17"/>
@@ -8260,16 +8246,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D266" s="22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E266" s="21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F266" s="16"/>
       <c r="G266" s="17"/>
@@ -8282,13 +8268,13 @@
         <v>14</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D267" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E267" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F267" s="16"/>
       <c r="G267" s="17"/>
@@ -8301,13 +8287,13 @@
         <v>5</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D268" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E268" s="15" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F268" s="16"/>
       <c r="G268" s="17"/>
@@ -8320,13 +8306,13 @@
         <v>5</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D269" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E269" s="15" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F269" s="16"/>
       <c r="G269" s="17"/>
@@ -8339,13 +8325,13 @@
         <v>5</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D270" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E270" s="15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F270" s="16"/>
       <c r="G270" s="17"/>
@@ -8355,16 +8341,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="D271" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E271" s="15" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="F271" s="16"/>
       <c r="G271" s="17"/>
@@ -8374,16 +8360,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="D272" s="19" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E272" s="15" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="F272" s="16"/>
       <c r="G272" s="17"/>
@@ -8396,13 +8382,13 @@
         <v>5</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="D273" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E273" s="15" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="F273" s="16"/>
       <c r="G273" s="17"/>
@@ -8415,13 +8401,13 @@
         <v>5</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
       <c r="D274" s="14" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="E274" s="15" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
       <c r="F274" s="16"/>
       <c r="G274" s="17"/>
@@ -8434,13 +8420,13 @@
         <v>5</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
       <c r="D275" s="14">
         <v>13</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
       <c r="F275" s="16"/>
       <c r="G275" s="16"/>
@@ -8453,13 +8439,13 @@
         <v>5</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="D276" s="14">
         <v>13</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="F276" s="16"/>
       <c r="G276" s="16"/>
@@ -8472,13 +8458,13 @@
         <v>5</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="F277" s="16"/>
       <c r="G277" s="16"/>
@@ -8488,16 +8474,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="D278" s="14" t="s">
-        <v>724</v>
+        <v>817</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>725</v>
+        <v>698</v>
       </c>
       <c r="F278" s="16"/>
       <c r="G278" s="16"/>
@@ -8507,16 +8493,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="D279" s="14" t="s">
-        <v>727</v>
+        <v>700</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>728</v>
+        <v>701</v>
       </c>
       <c r="F279" s="16"/>
       <c r="G279" s="16"/>
@@ -8526,16 +8512,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>729</v>
+        <v>702</v>
       </c>
       <c r="D280" s="14" t="s">
-        <v>730</v>
+        <v>703</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>731</v>
+        <v>704</v>
       </c>
       <c r="F280" s="16"/>
       <c r="G280" s="16"/>
@@ -8545,16 +8531,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="D281" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="E281" s="9" t="s">
         <v>706</v>
-      </c>
-      <c r="C281" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="D281" s="14" t="s">
-        <v>714</v>
-      </c>
-      <c r="E281" s="9" t="s">
-        <v>733</v>
       </c>
       <c r="F281" s="16"/>
       <c r="G281" s="16"/>
@@ -8564,16 +8550,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>734</v>
+        <v>707</v>
       </c>
       <c r="D282" s="14" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>735</v>
+        <v>708</v>
       </c>
       <c r="F282" s="16"/>
       <c r="G282" s="16"/>
@@ -8586,13 +8572,13 @@
         <v>10</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>736</v>
+        <v>709</v>
       </c>
       <c r="D283" s="14" t="s">
-        <v>737</v>
+        <v>818</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
       <c r="F283" s="16"/>
       <c r="G283" s="16"/>
@@ -8602,16 +8588,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
       <c r="D284" s="14">
         <v>12</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="F284" s="16"/>
       <c r="G284" s="16"/>
@@ -8621,16 +8607,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="D285" s="14" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="F285" s="16"/>
       <c r="G285" s="16"/>
@@ -8640,16 +8626,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="F286" s="16"/>
       <c r="G286" s="16"/>
@@ -8659,16 +8645,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
       <c r="D287" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
       <c r="F287" s="16"/>
       <c r="G287" s="16"/>
@@ -8678,16 +8664,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="D288" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
       <c r="F288" s="16"/>
       <c r="G288" s="16"/>
@@ -8697,16 +8683,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="F289" s="16"/>
       <c r="G289" s="16"/>
@@ -8716,16 +8702,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="D290" s="14" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="F290" s="16"/>
       <c r="G290" s="16"/>
@@ -8735,16 +8721,16 @@
         <v>290</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="D291" s="14" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="F291" s="16"/>
       <c r="G291" s="16"/>
@@ -8754,16 +8740,16 @@
         <v>291</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>810</v>
+        <v>781</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>811</v>
+        <v>782</v>
       </c>
       <c r="D292" s="14" t="s">
-        <v>812</v>
+        <v>783</v>
       </c>
       <c r="E292" s="9" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="F292" s="16"/>
       <c r="G292" s="16"/>
@@ -8773,16 +8759,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="F293" s="16"/>
       <c r="G293" s="16"/>
@@ -8795,13 +8781,13 @@
         <v>10</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>769</v>
+        <v>741</v>
       </c>
       <c r="D294" s="14" t="s">
-        <v>770</v>
+        <v>742</v>
       </c>
       <c r="E294" s="9" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
       <c r="F294" s="16"/>
       <c r="G294" s="16"/>
@@ -8811,16 +8797,16 @@
         <v>294</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>772</v>
+        <v>744</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>773</v>
+        <v>745</v>
       </c>
       <c r="D295" s="14" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
       <c r="E295" s="9" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
       <c r="F295" s="16"/>
       <c r="G295" s="16"/>
@@ -8830,16 +8816,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="D296" s="14">
         <v>32</v>
       </c>
       <c r="E296" s="9" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="F296" s="16"/>
       <c r="G296" s="16"/>
@@ -8849,16 +8835,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="D297" s="14" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="E297" s="9" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="F297" s="16"/>
       <c r="G297" s="16"/>
@@ -8868,16 +8854,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
       <c r="D298" s="14">
         <v>12</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="F298" s="16"/>
       <c r="G298" s="16"/>
@@ -8887,20 +8873,20 @@
         <v>298</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F299" s="6"/>
       <c r="G299" s="23" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -8911,17 +8897,17 @@
         <v>21</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F300" s="6"/>
       <c r="G300" s="23" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -8932,13 +8918,13 @@
         <v>21</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F301" s="6"/>
       <c r="G301" s="6"/>
@@ -8951,13 +8937,13 @@
         <v>21</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F302" s="6"/>
       <c r="G302" s="6"/>
@@ -8970,13 +8956,13 @@
         <v>21</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
@@ -8989,13 +8975,13 @@
         <v>21</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D304" s="24">
         <v>43020</v>
       </c>
       <c r="E304" s="6" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
@@ -9008,13 +8994,13 @@
         <v>21</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
@@ -9027,13 +9013,13 @@
         <v>21</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D306" s="6">
         <v>12</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F306" s="6"/>
       <c r="G306" s="6"/>
@@ -9046,13 +9032,13 @@
         <v>21</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
@@ -9065,13 +9051,13 @@
         <v>21</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
@@ -9084,13 +9070,13 @@
         <v>44</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
@@ -9103,13 +9089,13 @@
         <v>44</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F310" s="6"/>
       <c r="G310" s="6"/>
@@ -9122,13 +9108,13 @@
         <v>44</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
@@ -9141,13 +9127,13 @@
         <v>24</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D312" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="F312" s="6"/>
       <c r="G312" s="6"/>
@@ -9160,13 +9146,13 @@
         <v>24</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
@@ -9179,13 +9165,13 @@
         <v>24</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D314" s="6">
         <v>9</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
       <c r="F314" s="6"/>
       <c r="G314" s="6"/>
@@ -9198,13 +9184,13 @@
         <v>45</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
@@ -9217,13 +9203,13 @@
         <v>45</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D316" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="F316" s="6"/>
       <c r="G316" s="6"/>
@@ -9233,16 +9219,16 @@
         <v>316</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="D317" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
@@ -9252,16 +9238,16 @@
         <v>317</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="D318" s="7" t="s">
-        <v>8</v>
+        <v>767</v>
+      </c>
+      <c r="D318" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>796</v>
+        <v>819</v>
       </c>
       <c r="F318" s="6"/>
       <c r="G318" s="6"/>
@@ -9271,16 +9257,16 @@
         <v>318</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>797</v>
+        <v>768</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>798</v>
+        <v>769</v>
       </c>
       <c r="D319" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
@@ -9290,16 +9276,16 @@
         <v>319</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>799</v>
+        <v>770</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>800</v>
+        <v>771</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>801</v>
+        <v>772</v>
       </c>
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
@@ -9309,16 +9295,16 @@
         <v>320</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>799</v>
+        <v>770</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D321" s="6">
         <v>1</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>802</v>
+        <v>773</v>
       </c>
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
@@ -9328,16 +9314,16 @@
         <v>321</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>799</v>
+        <v>770</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D322" s="6">
         <v>9</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>802</v>
+        <v>773</v>
       </c>
       <c r="F322" s="6"/>
       <c r="G322" s="6"/>
@@ -9347,16 +9333,16 @@
         <v>322</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>799</v>
+        <v>770</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>803</v>
+        <v>774</v>
       </c>
       <c r="D323" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>804</v>
+        <v>775</v>
       </c>
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
@@ -9366,16 +9352,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>799</v>
+        <v>770</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>805</v>
+        <v>776</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>804</v>
+        <v>775</v>
       </c>
       <c r="F324" s="6"/>
       <c r="G324" s="6"/>
@@ -9385,16 +9371,16 @@
         <v>324</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>806</v>
+        <v>777</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D325" s="6">
         <v>1</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>807</v>
+        <v>778</v>
       </c>
       <c r="F325" s="6"/>
       <c r="G325" s="6"/>
@@ -9404,16 +9390,16 @@
         <v>325</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>808</v>
+        <v>779</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D326" s="6">
         <v>1</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>809</v>
+        <v>780</v>
       </c>
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
@@ -9426,13 +9412,13 @@
         <v>5</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
@@ -9442,16 +9428,16 @@
         <v>327</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D328" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
@@ -9464,16 +9450,16 @@
         <v>120</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D329" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F329" s="6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G329" s="6"/>
     </row>
@@ -9485,16 +9471,16 @@
         <v>120</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F330" s="6" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G330" s="6"/>
     </row>
@@ -9503,19 +9489,19 @@
         <v>330</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F331" s="6" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G331" s="6"/>
     </row>
@@ -9524,19 +9510,19 @@
         <v>331</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D332" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G332" s="6"/>
     </row>
@@ -9548,16 +9534,16 @@
         <v>46</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F333" s="6" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G333" s="6"/>
     </row>
@@ -9566,19 +9552,19 @@
         <v>333</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F334" s="6" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G334" s="6"/>
     </row>
@@ -9587,19 +9573,19 @@
         <v>334</v>
       </c>
       <c r="B335" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D335" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E335" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C335" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="D335" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="E335" s="6" t="s">
-        <v>463</v>
-      </c>
       <c r="F335" s="6" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G335" s="6"/>
     </row>
@@ -9608,19 +9594,19 @@
         <v>335</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F336" s="6" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G336" s="6"/>
     </row>
@@ -9629,19 +9615,19 @@
         <v>336</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D337" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F337" s="6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="G337" s="6"/>
     </row>

--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test2_Frozen/QuerySet2.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test2_Frozen/QuerySet2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="825">
   <si>
     <t>Index</t>
   </si>
@@ -1017,9 +1017,6 @@
     <t>Underscore Expr NotSameSubTree PartialMatch NoAnswer</t>
   </si>
   <si>
-    <t>Select a pattern a(_, _"14+100*a"_)</t>
-  </si>
-  <si>
     <t>Underscore Expr SameSubTree PartialMatch HasAnswer</t>
   </si>
   <si>
@@ -1317,9 +1314,6 @@
     <t>Select s such that Modifies(s, v) and Uses(s, v)</t>
   </si>
   <si>
-    <t>1,2,3,5,7,8,11,14,15,18,19,23,24,26,28,29,30,33</t>
-  </si>
-  <si>
     <t>InSameStmt ChooseStmt Modifies and Uses SameUnknownVar HasAnswer</t>
   </si>
   <si>
@@ -1338,9 +1332,6 @@
     <t>What variable is modified and used?</t>
   </si>
   <si>
-    <t>assign s; variable v;</t>
-  </si>
-  <si>
     <t>Select a such that Modifies(a, v) and Uses(a, v)</t>
   </si>
   <si>
@@ -1368,9 +1359,6 @@
     <t>Which procedure modifies and uses the same variable?</t>
   </si>
   <si>
-    <t>stmt s1, s2; variable;</t>
-  </si>
-  <si>
     <t>Select s1 such that Modifies(s1, v) and Parent(s1, s2)</t>
   </si>
   <si>
@@ -1956,9 +1944,6 @@
     <t>3 clauses: select p1 calls p1 p2 calls p3 p1 with p3</t>
   </si>
   <si>
-    <t>Four, Five</t>
-  </si>
-  <si>
     <t>4 clauses: select p1 calls p2 p1 with p2 and calls p2 p3 with p3</t>
   </si>
   <si>
@@ -1998,9 +1983,6 @@
     <t>1 Clause: select while 1 synonym (1stArg), given arg; Has answer</t>
   </si>
   <si>
-    <t>calls c;</t>
-  </si>
-  <si>
     <t>Select c such that Next(c, 11)</t>
   </si>
   <si>
@@ -2049,9 +2031,6 @@
     <t>1 Clause: select while 1 synonym (2nd Arg), given arg; Has answer</t>
   </si>
   <si>
-    <t>Select boolean such that Next*(19,19)</t>
-  </si>
-  <si>
     <t>1 clause: same value on both arg, boolean, false</t>
   </si>
   <si>
@@ -2169,9 +2148,6 @@
     <t>Select c such that Next*(a,c) and Next*(w,c)</t>
   </si>
   <si>
-    <t>14,15</t>
-  </si>
-  <si>
     <t>nextstar a c and nextstar w c</t>
   </si>
   <si>
@@ -2181,9 +2157,6 @@
     <t>Select s1 such that Next(s1,s2) and Next(s2,s3)</t>
   </si>
   <si>
-    <t>4,5,11,12,13,14,15,16,17,18,20,21,23,26,27,28,29,30,31,32,35,36</t>
-  </si>
-  <si>
     <t>next s1 s2 and next s2 s3</t>
   </si>
   <si>
@@ -2238,12 +2211,6 @@
     <t>stmt s; while w; constant c;</t>
   </si>
   <si>
-    <t>Select s such that Next*(s,s) with s.stmt# = c.value and Next*(s,w)</t>
-  </si>
-  <si>
-    <t>2,10</t>
-  </si>
-  <si>
     <t>Select a such that Next(a,w) pattern a(_,_"2*h"_)</t>
   </si>
   <si>
@@ -2259,15 +2226,9 @@
     <t>Select v such that Next*(a,w) pattern a(v,_)</t>
   </si>
   <si>
-    <t>g,j,k,m,s,t,u</t>
-  </si>
-  <si>
     <t>next and pattern clause get variables</t>
   </si>
   <si>
-    <t>Select s such that Next*(w,i) pattern w("u",_) and Next*(s,a) with s.stmt# = 31</t>
-  </si>
-  <si>
     <t>next and pattern and with</t>
   </si>
   <si>
@@ -2277,9 +2238,6 @@
     <t>Select s1 such that Next(s1,w) and Next*(s2,w) and Next*(s1,s2)</t>
   </si>
   <si>
-    <t>16,28,31,32</t>
-  </si>
-  <si>
     <t>3 next</t>
   </si>
   <si>
@@ -2289,9 +2247,6 @@
     <t>Select a such that Next(_,a) and Next(a,i) and Next*(a,w) and Next(a,c)</t>
   </si>
   <si>
-    <t>4 next</t>
-  </si>
-  <si>
     <t>1 while, no synonym</t>
   </si>
   <si>
@@ -2358,9 +2313,6 @@
     <t>3 whiles</t>
   </si>
   <si>
-    <t>while w; w1, w2, w3;</t>
-  </si>
-  <si>
     <t>4 whiles</t>
   </si>
   <si>
@@ -2442,9 +2394,6 @@
     <t>10,12,16,21, 27</t>
   </si>
   <si>
-    <t>while w; if I;</t>
-  </si>
-  <si>
     <t>Select v such that Calls(p, "Seven")</t>
   </si>
   <si>
@@ -2479,15 +2428,78 @@
   </si>
   <si>
     <t>1 while, 1 synonym, select all assign</t>
+  </si>
+  <si>
+    <t>Three,Five</t>
+  </si>
+  <si>
+    <t>Four, Five, Six</t>
+  </si>
+  <si>
+    <t>call c;</t>
+  </si>
+  <si>
+    <t>Select BOOLEAN such that Next*(19,19)</t>
+  </si>
+  <si>
+    <t>14,15,28</t>
+  </si>
+  <si>
+    <t>Select s such that Next*(s,s) with s.stmt# = c.value such that Next*(s,w)</t>
+  </si>
+  <si>
+    <t>g,j,k,m,s,t,u,l</t>
+  </si>
+  <si>
+    <t>Select s such that Next*(w,i) pattern w("u",_) such that Next*(s,a) with s.stmt# = 31</t>
+  </si>
+  <si>
+    <t>4 next NoResult</t>
+  </si>
+  <si>
+    <t>10,12</t>
+  </si>
+  <si>
+    <t>Select a pattern a(_, _"100*a"_)</t>
+  </si>
+  <si>
+    <t>while w, w1; variable v;</t>
+  </si>
+  <si>
+    <t>while w, w1, w2, w3;</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>1,2,3,5,7,8,11,13,14,15,18,19,23,24,26,28,29,30,33</t>
+  </si>
+  <si>
+    <t>stmt s1, s2; variable v;</t>
+  </si>
+  <si>
+    <t>1,2,4,5,9,10,11,12,13,14,15,16,17,18,20,21,23,26,27,28,29,30,31,32,35,36</t>
+  </si>
+  <si>
+    <t>2,9,10,14</t>
+  </si>
+  <si>
+    <t>2,10,16,18,21,27,28,31,32</t>
+  </si>
+  <si>
+    <t>stmt s; assign a; while w; if i;</t>
+  </si>
+  <si>
+    <t>10,12,16</t>
+  </si>
+  <si>
+    <t>Select v such that Modifies(a, v) and Uses(a, v)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m\,\ d"/>
-  </numFmts>
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -2599,7 +2611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2658,9 +2670,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3247,9 +3256,9 @@
   <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D318" sqref="D318"/>
+      <selection pane="bottomLeft" activeCell="D296" sqref="D296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3281,10 +3290,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3297,7 +3306,7 @@
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -3305,7 +3314,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3392,13 +3401,13 @@
         <v>111</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -3465,16 +3474,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -3484,16 +3493,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -3506,13 +3515,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D13" s="6">
         <v>3</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -3522,16 +3531,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -3544,13 +3553,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3560,16 +3569,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -3582,13 +3591,13 @@
         <v>295</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3598,16 +3607,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>373</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3620,13 +3629,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3636,16 +3645,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -3658,13 +3667,13 @@
         <v>304</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>785</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>381</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -3677,13 +3686,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -3696,13 +3705,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -3712,16 +3721,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -3731,16 +3740,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -3753,13 +3762,13 @@
         <v>10</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -3769,16 +3778,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>394</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>395</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -3788,16 +3797,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -3807,16 +3816,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -3825,17 +3834,17 @@
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>787</v>
+      <c r="B30" s="25" t="s">
+        <v>771</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -3848,13 +3857,13 @@
         <v>24</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -3867,13 +3876,13 @@
         <v>24</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -3883,16 +3892,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -3902,16 +3911,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -3921,16 +3930,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>416</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -3940,16 +3949,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>419</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -3959,16 +3968,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>786</v>
+      <c r="D37" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>770</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -3978,16 +3987,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -4000,13 +4009,13 @@
         <v>5</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -4019,13 +4028,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -4063,7 +4072,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -4082,7 +4091,7 @@
         <v>23</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -4101,7 +4110,7 @@
         <v>26</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -4120,7 +4129,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -4139,7 +4148,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -4158,7 +4167,7 @@
         <v>34</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -4177,7 +4186,7 @@
         <v>99</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -4192,11 +4201,11 @@
       <c r="C49" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>182</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -4215,7 +4224,7 @@
         <v>7</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -4234,7 +4243,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -4247,13 +4256,13 @@
         <v>40</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -4263,16 +4272,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -4285,13 +4294,13 @@
         <v>295</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -4304,13 +4313,13 @@
         <v>297</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -4323,13 +4332,13 @@
         <v>301</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -4342,13 +4351,13 @@
         <v>299</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -4361,13 +4370,13 @@
         <v>168</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>99</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -4380,13 +4389,13 @@
         <v>120</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -4399,13 +4408,13 @@
         <v>304</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="D60" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>182</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -4424,7 +4433,7 @@
         <v>8</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -4438,7 +4447,7 @@
         <v>104</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>105</v>
@@ -4455,7 +4464,7 @@
         <v>106</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>107</v>
@@ -4472,7 +4481,7 @@
         <v>113</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>114</v>
@@ -4488,13 +4497,13 @@
         <v>17</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -4507,13 +4516,13 @@
         <v>17</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -4528,8 +4537,8 @@
       <c r="C67" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="25" t="s">
-        <v>788</v>
+      <c r="D67" s="24" t="s">
+        <v>772</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>115</v>
@@ -4545,13 +4554,13 @@
         <v>5</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -4583,13 +4592,13 @@
         <v>21</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D70" s="13">
         <v>27</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -4602,13 +4611,13 @@
         <v>24</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -4621,13 +4630,13 @@
         <v>27</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>789</v>
+        <v>519</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>773</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -4640,13 +4649,13 @@
         <v>30</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>790</v>
+        <v>521</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>774</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -4659,13 +4668,13 @@
         <v>36</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D74" s="13">
         <v>27</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -4700,7 +4709,7 @@
         <v>118</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>119</v>
@@ -4722,7 +4731,7 @@
         <v>7</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -4738,10 +4747,10 @@
         <v>122</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -4755,7 +4764,7 @@
         <v>124</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>125</v>
@@ -4772,7 +4781,7 @@
         <v>126</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>127</v>
@@ -4808,7 +4817,7 @@
         <v>129</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>130</v>
@@ -4826,8 +4835,8 @@
       <c r="C83" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D83" s="29" t="s">
-        <v>532</v>
+      <c r="D83" s="28" t="s">
+        <v>528</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>132</v>
@@ -4884,10 +4893,10 @@
         <v>141</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -4902,11 +4911,11 @@
       <c r="C87" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D87" s="29" t="s">
-        <v>530</v>
+      <c r="D87" s="28" t="s">
+        <v>526</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -4917,13 +4926,13 @@
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="D88" s="30" t="s">
-        <v>468</v>
+        <v>532</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>464</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -4933,14 +4942,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="26" t="s">
-        <v>791</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>467</v>
+      <c r="C89" s="25" t="s">
+        <v>775</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>463</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -4953,13 +4962,13 @@
         <v>17</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -4972,13 +4981,13 @@
         <v>17</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -4990,14 +4999,14 @@
       <c r="B92" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="26" t="s">
-        <v>792</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>793</v>
+      <c r="C92" s="25" t="s">
+        <v>776</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>777</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -5010,13 +5019,13 @@
         <v>14</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -5029,7 +5038,7 @@
         <v>17</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>8</v>
@@ -5048,13 +5057,13 @@
         <v>42</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -5064,16 +5073,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -5083,16 +5092,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>555</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -5102,16 +5111,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="D98" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="D98" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -5121,16 +5130,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -5140,19 +5149,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="D100" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="D100" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>794</v>
+        <v>561</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>778</v>
       </c>
       <c r="G100" s="6"/>
     </row>
@@ -5161,16 +5170,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -5180,16 +5189,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>795</v>
+        <v>566</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>779</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
@@ -5199,16 +5208,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -5218,16 +5227,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -5237,16 +5246,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -5256,16 +5265,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -5275,16 +5284,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -5294,16 +5303,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -5316,13 +5325,13 @@
         <v>5</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -5335,7 +5344,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>8</v>
@@ -5354,10 +5363,10 @@
         <v>120</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>230</v>
@@ -5373,10 +5382,10 @@
         <v>120</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>233</v>
@@ -5392,13 +5401,13 @@
         <v>123</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
@@ -5411,13 +5420,13 @@
         <v>44</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
@@ -5430,13 +5439,13 @@
         <v>44</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>323</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -5449,13 +5458,13 @@
         <v>44</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
@@ -5465,16 +5474,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -5484,16 +5493,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -5503,16 +5512,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -5522,16 +5531,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>323</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -5541,16 +5550,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
@@ -5561,10 +5570,10 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="6" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>105</v>
@@ -5581,7 +5590,7 @@
         <v>143</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>107</v>
@@ -5595,10 +5604,10 @@
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>114</v>
@@ -5617,10 +5626,10 @@
         <v>144</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
@@ -5639,7 +5648,7 @@
         <v>13</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
@@ -5655,7 +5664,7 @@
         <v>48</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -5757,7 +5766,7 @@
         <v>145</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
@@ -5791,7 +5800,7 @@
         <v>146</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -5887,7 +5896,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>807</v>
+        <v>55</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>147</v>
@@ -6262,7 +6271,7 @@
         <v>137</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>34</v>
@@ -6589,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
@@ -6606,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
@@ -6638,10 +6647,10 @@
         <v>14</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>213</v>
@@ -6733,7 +6742,7 @@
         <v>14</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D186" s="14" t="s">
         <v>8</v>
@@ -6777,7 +6786,7 @@
         <v>8</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -6796,7 +6805,7 @@
         <v>159</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
@@ -6815,7 +6824,7 @@
         <v>154</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
@@ -6828,13 +6837,13 @@
         <v>162</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
@@ -6844,16 +6853,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -6863,19 +6872,19 @@
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C193" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>626</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>156</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="G193" s="6"/>
     </row>
@@ -6884,19 +6893,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>161</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="G194" s="6"/>
     </row>
@@ -6905,19 +6914,19 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>161</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="G195" s="6"/>
     </row>
@@ -6926,16 +6935,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
@@ -6945,16 +6954,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>156</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
@@ -6964,16 +6973,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>161</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
@@ -7236,7 +7245,7 @@
         <v>253</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>254</v>
@@ -7277,7 +7286,7 @@
         <v>154</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
@@ -7296,7 +7305,7 @@
         <v>212</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
@@ -7315,7 +7324,7 @@
         <v>260</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
@@ -7328,13 +7337,13 @@
         <v>138</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>161</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
@@ -7344,16 +7353,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>212</v>
+        <v>803</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
@@ -7363,16 +7372,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>154</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
@@ -7382,16 +7391,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>645</v>
+        <v>804</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
@@ -7401,16 +7410,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>239</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
@@ -7459,13 +7468,13 @@
       </c>
       <c r="B224" s="15"/>
       <c r="C224" s="15" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D224" s="14" t="b">
         <v>1</v>
       </c>
       <c r="E224" s="15" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F224" s="16"/>
       <c r="G224" s="17"/>
@@ -7535,13 +7544,13 @@
         <v>21</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D228" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E228" s="15" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F228" s="16"/>
       <c r="G228" s="17"/>
@@ -7554,13 +7563,13 @@
         <v>21</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D229" s="19">
         <v>16</v>
       </c>
       <c r="E229" s="15" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F229" s="16"/>
       <c r="G229" s="17"/>
@@ -7573,13 +7582,13 @@
         <v>24</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D230" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E230" s="15" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F230" s="16"/>
       <c r="G230" s="17"/>
@@ -7592,13 +7601,13 @@
         <v>24</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D231" s="19">
         <v>11</v>
       </c>
       <c r="E231" s="15" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F231" s="16"/>
       <c r="G231" s="17"/>
@@ -7608,16 +7617,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>659</v>
+        <v>805</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D232" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E232" s="15" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F232" s="16"/>
       <c r="G232" s="17"/>
@@ -7627,16 +7636,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>659</v>
+        <v>805</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D233" s="19" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E233" s="15" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F233" s="16"/>
       <c r="G233" s="17"/>
@@ -7649,13 +7658,13 @@
         <v>27</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D234" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E234" s="15" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F234" s="16"/>
       <c r="G234" s="17"/>
@@ -7668,13 +7677,13 @@
         <v>27</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D235" s="19">
         <v>13</v>
       </c>
       <c r="E235" s="15" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F235" s="16"/>
       <c r="G235" s="17"/>
@@ -7744,13 +7753,13 @@
         <v>21</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D239" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E239" s="15" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F239" s="16"/>
       <c r="G239" s="17"/>
@@ -7763,13 +7772,13 @@
         <v>21</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D240" s="19">
         <v>12</v>
       </c>
       <c r="E240" s="15" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F240" s="16"/>
       <c r="G240" s="17"/>
@@ -7782,13 +7791,13 @@
         <v>24</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D241" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E241" s="15" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F241" s="16"/>
       <c r="G241" s="17"/>
@@ -7801,13 +7810,13 @@
         <v>24</v>
       </c>
       <c r="C242" s="15" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D242" s="19">
         <v>11</v>
       </c>
       <c r="E242" s="15" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F242" s="16"/>
       <c r="G242" s="17"/>
@@ -7856,13 +7865,13 @@
       </c>
       <c r="B245" s="15"/>
       <c r="C245" s="15" t="s">
-        <v>676</v>
+        <v>806</v>
       </c>
       <c r="D245" s="14" t="b">
         <v>0</v>
       </c>
       <c r="E245" s="15" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F245" s="16"/>
       <c r="G245" s="17"/>
@@ -7873,13 +7882,13 @@
       </c>
       <c r="B246" s="15"/>
       <c r="C246" s="15" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="D246" s="14" t="b">
         <v>1</v>
       </c>
       <c r="E246" s="15" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F246" s="16"/>
       <c r="G246" s="17"/>
@@ -7933,7 +7942,7 @@
         <v>282</v>
       </c>
       <c r="D249" s="14" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="E249" s="15" t="s">
         <v>265</v>
@@ -7971,7 +7980,7 @@
         <v>284</v>
       </c>
       <c r="D251" s="19" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="E251" s="15" t="s">
         <v>267</v>
@@ -8028,7 +8037,7 @@
         <v>287</v>
       </c>
       <c r="D254" s="19" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="E254" s="15" t="s">
         <v>84</v>
@@ -8341,16 +8350,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="D271" s="19" t="s">
         <v>269</v>
       </c>
       <c r="E271" s="15" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="F271" s="16"/>
       <c r="G271" s="17"/>
@@ -8360,16 +8369,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D272" s="19" t="s">
         <v>277</v>
       </c>
       <c r="E272" s="15" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="F272" s="16"/>
       <c r="G272" s="17"/>
@@ -8382,13 +8391,13 @@
         <v>5</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D273" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E273" s="15" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="F273" s="16"/>
       <c r="G273" s="17"/>
@@ -8401,13 +8410,13 @@
         <v>5</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="D274" s="14" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E274" s="15" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F274" s="16"/>
       <c r="G274" s="17"/>
@@ -8420,13 +8429,13 @@
         <v>5</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D275" s="14">
         <v>13</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F275" s="16"/>
       <c r="G275" s="16"/>
@@ -8439,13 +8448,13 @@
         <v>5</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D276" s="14">
         <v>13</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F276" s="16"/>
       <c r="G276" s="16"/>
@@ -8458,13 +8467,13 @@
         <v>5</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="F277" s="16"/>
       <c r="G277" s="16"/>
@@ -8474,16 +8483,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D278" s="14" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="F278" s="16"/>
       <c r="G278" s="16"/>
@@ -8493,16 +8502,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="D279" s="14" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F279" s="16"/>
       <c r="G279" s="16"/>
@@ -8512,16 +8521,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D280" s="14" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F280" s="16"/>
       <c r="G280" s="16"/>
@@ -8531,16 +8540,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="D281" s="14" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E281" s="9" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F281" s="16"/>
       <c r="G281" s="16"/>
@@ -8550,16 +8559,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="D282" s="14" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F282" s="16"/>
       <c r="G282" s="16"/>
@@ -8572,13 +8581,13 @@
         <v>10</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="D283" s="14" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F283" s="16"/>
       <c r="G283" s="16"/>
@@ -8588,16 +8597,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D284" s="14">
         <v>12</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F284" s="16"/>
       <c r="G284" s="16"/>
@@ -8607,16 +8616,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D285" s="14" t="s">
-        <v>716</v>
+        <v>807</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F285" s="16"/>
       <c r="G285" s="16"/>
@@ -8626,16 +8635,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>720</v>
+        <v>819</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F286" s="16"/>
       <c r="G286" s="16"/>
@@ -8645,16 +8654,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D287" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="F287" s="16"/>
       <c r="G287" s="16"/>
@@ -8664,16 +8673,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="D288" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="F288" s="16"/>
       <c r="G288" s="16"/>
@@ -8683,16 +8692,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F289" s="16"/>
       <c r="G289" s="16"/>
@@ -8702,16 +8711,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="D290" s="14" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="F290" s="16"/>
       <c r="G290" s="16"/>
@@ -8721,16 +8730,16 @@
         <v>290</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="D291" s="14" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="F291" s="16"/>
       <c r="G291" s="16"/>
@@ -8740,16 +8749,16 @@
         <v>291</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="D292" s="14" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="E292" s="9" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F292" s="16"/>
       <c r="G292" s="16"/>
@@ -8759,16 +8768,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>739</v>
+        <v>808</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>740</v>
+        <v>820</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F293" s="16"/>
       <c r="G293" s="16"/>
@@ -8781,13 +8790,13 @@
         <v>10</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="D294" s="14" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="E294" s="9" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="F294" s="16"/>
       <c r="G294" s="16"/>
@@ -8797,16 +8806,16 @@
         <v>294</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="D295" s="14" t="s">
-        <v>746</v>
+        <v>809</v>
       </c>
       <c r="E295" s="9" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="F295" s="16"/>
       <c r="G295" s="16"/>
@@ -8816,16 +8825,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>423</v>
+        <v>822</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>748</v>
+        <v>810</v>
       </c>
       <c r="D296" s="14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E296" s="9" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="F296" s="16"/>
       <c r="G296" s="16"/>
@@ -8835,16 +8844,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="D297" s="14" t="s">
-        <v>752</v>
+        <v>821</v>
       </c>
       <c r="E297" s="9" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="F297" s="16"/>
       <c r="G297" s="16"/>
@@ -8854,16 +8863,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="D298" s="14">
-        <v>12</v>
+        <v>741</v>
+      </c>
+      <c r="D298" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>756</v>
+        <v>811</v>
       </c>
       <c r="F298" s="16"/>
       <c r="G298" s="16"/>
@@ -8977,8 +8986,8 @@
       <c r="C304" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D304" s="24">
-        <v>43020</v>
+      <c r="D304" s="7" t="s">
+        <v>812</v>
       </c>
       <c r="E304" s="6" t="s">
         <v>329</v>
@@ -9013,13 +9022,13 @@
         <v>21</v>
       </c>
       <c r="C306" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E306" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="D306" s="6">
-        <v>12</v>
-      </c>
-      <c r="E306" s="6" t="s">
-        <v>333</v>
       </c>
       <c r="F306" s="6"/>
       <c r="G306" s="6"/>
@@ -9032,13 +9041,13 @@
         <v>21</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
@@ -9051,13 +9060,13 @@
         <v>21</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
@@ -9070,13 +9079,13 @@
         <v>44</v>
       </c>
       <c r="C309" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D309" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="D309" s="6" t="s">
+      <c r="E309" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="E309" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
@@ -9089,13 +9098,13 @@
         <v>44</v>
       </c>
       <c r="C310" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D310" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D310" s="6" t="s">
+      <c r="E310" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="E310" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="F310" s="6"/>
       <c r="G310" s="6"/>
@@ -9108,13 +9117,13 @@
         <v>44</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
@@ -9127,13 +9136,13 @@
         <v>24</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D312" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="F312" s="6"/>
       <c r="G312" s="6"/>
@@ -9146,13 +9155,13 @@
         <v>24</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
@@ -9165,13 +9174,13 @@
         <v>24</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D314" s="6">
         <v>9</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="F314" s="6"/>
       <c r="G314" s="6"/>
@@ -9184,13 +9193,13 @@
         <v>45</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
@@ -9203,13 +9212,13 @@
         <v>45</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D316" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="F316" s="6"/>
       <c r="G316" s="6"/>
@@ -9219,16 +9228,16 @@
         <v>316</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
@@ -9238,16 +9247,16 @@
         <v>317</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="D318" s="31" t="s">
+        <v>752</v>
+      </c>
+      <c r="D318" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="F318" s="6"/>
       <c r="G318" s="6"/>
@@ -9257,16 +9266,16 @@
         <v>318</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="D319" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
@@ -9276,16 +9285,16 @@
         <v>319</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
@@ -9295,16 +9304,16 @@
         <v>320</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D321" s="6">
         <v>1</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
@@ -9314,16 +9323,16 @@
         <v>321</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D322" s="6">
         <v>9</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="F322" s="6"/>
       <c r="G322" s="6"/>
@@ -9333,16 +9342,16 @@
         <v>322</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>770</v>
+        <v>814</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="D323" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
@@ -9352,16 +9361,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>770</v>
+        <v>814</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="F324" s="6"/>
       <c r="G324" s="6"/>
@@ -9371,16 +9380,16 @@
         <v>324</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D325" s="6">
         <v>1</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="F325" s="6"/>
       <c r="G325" s="6"/>
@@ -9390,16 +9399,16 @@
         <v>325</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>779</v>
+        <v>815</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D326" s="6">
         <v>1</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
@@ -9412,13 +9421,13 @@
         <v>5</v>
       </c>
       <c r="C327" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D327" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="E327" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="D327" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="E327" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
@@ -9428,16 +9437,16 @@
         <v>327</v>
       </c>
       <c r="B328" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C328" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="C328" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="D328" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
@@ -9450,16 +9459,16 @@
         <v>120</v>
       </c>
       <c r="C329" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D329" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="E329" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D329" s="7" t="s">
+      <c r="F329" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="E329" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="F329" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="G329" s="6"/>
     </row>
@@ -9471,16 +9480,16 @@
         <v>120</v>
       </c>
       <c r="C330" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D330" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E330" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D330" s="7" t="s">
+      <c r="F330" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="E330" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="F330" s="6" t="s">
-        <v>438</v>
       </c>
       <c r="G330" s="6"/>
     </row>
@@ -9489,19 +9498,19 @@
         <v>330</v>
       </c>
       <c r="B331" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D331" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E331" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F331" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D331" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="E331" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="F331" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="G331" s="6"/>
     </row>
@@ -9510,19 +9519,19 @@
         <v>331</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>439</v>
+        <v>44</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>440</v>
+        <v>824</v>
       </c>
       <c r="D332" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G332" s="6"/>
     </row>
@@ -9534,16 +9543,16 @@
         <v>46</v>
       </c>
       <c r="C333" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D333" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E333" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F333" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="D333" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="E333" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="F333" s="6" t="s">
-        <v>448</v>
       </c>
       <c r="G333" s="6"/>
     </row>
@@ -9552,19 +9561,19 @@
         <v>333</v>
       </c>
       <c r="B334" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D334" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E334" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F334" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="C334" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="D334" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E334" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="F334" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="G334" s="6"/>
     </row>
@@ -9573,19 +9582,19 @@
         <v>334</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>449</v>
+        <v>818</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D335" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F335" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G335" s="6"/>
     </row>
@@ -9594,19 +9603,19 @@
         <v>335</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>449</v>
+        <v>818</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F336" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G336" s="6"/>
     </row>
@@ -9615,19 +9624,19 @@
         <v>336</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D337" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F337" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G337" s="6"/>
     </row>
